--- a/Funcionalidade.xlsx
+++ b/Funcionalidade.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="funcionalidade" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,7 +14,8 @@
     <sheet name="funcionalidade (2)" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">funcionalidade!$A$4:$H$4</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">funcionalidade!$A$4:$H$82</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">funcionalidade!$A$4:$H$4</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -26,653 +27,659 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="415">
   <si>
     <t xml:space="preserve">nome</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23E+</t>
+    <t xml:space="preserve">PND</t>
   </si>
   <si>
     <t xml:space="preserve">descricao</t>
   </si>
   <si>
+    <t xml:space="preserve">Nova</t>
+  </si>
+  <si>
     <t xml:space="preserve">data</t>
   </si>
   <si>
+    <t xml:space="preserve">2025-12-01-19-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pk_funcionalidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">designacao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fk_tipo_funcionalidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grupo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fk_funcionalidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">funcionalidades_partilhadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">url</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modulo_principal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modulo Principal da dashboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modulo_seguranca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modulo Generico para Segurança</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modulo_funcionalidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modulo Genérico para Funcionalidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modulo_perfis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modulo Genérico para Perfis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modulo_contas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modulo Genérico para Contas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modulo_agua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modulo de Água</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modulo_educacao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modulo Educação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modulos_saude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modulo Saúde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segurança</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menu de Segurança</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Água</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menu de no Água</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saúde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menu do Saúde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Educação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menu Educação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funcionalidades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menu de funcionalidades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perfis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menu de Perfis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menu de Contas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005;2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cadastrar Pefil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cadastrar Perfil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Listar Perfis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006;2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cadastrar Funcionalidades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cadastrar funcionalidades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2003;2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Listar Funcionalidades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2004;2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associar Perfis as funcionalidades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associar Perfis ao um grupo de funcionalidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cadastrar Conta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007;2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Listar Contas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008;2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cadastrar Água</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cadastrar das zonas com Água</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011;2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Listar  Água</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Listar as zonas com Água</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012;2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cadastrar Saúde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013;2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Listar Saúde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014;2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cadastrar  Educação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cadastrar Educação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015;2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Listar Educação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016;2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">formulario_login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formulario de entrada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">formulario_erro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formulario de erro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">formulario_inicial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formulario Inicial da Dashboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/painel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">formulario_cadastro_funcionalidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formulario de Cadastro Funcionalidades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/painel/funcionalidade/criar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">formulario_listagem_funcionalidades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formulario de listagem Funcionalidades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/painel/funcionalidade/listar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">formulario_perfis_funcionalidades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formulario de associacao dos perfis a um grupo de funcionalidades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/painel/perfil/perfil_funcionalidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">formulario_cadastro_perfis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formulario de Cadastro Perfis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/painel/perfil/criar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">formulario_listagem_perfis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formulario de listagem Perfis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/painel/perfil/listar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">formulario_cadastro_contas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formulario de Cadastro Contas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/painel/conta/criar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">formulario_listagem_contas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formulario de listagem Contas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/painel/conta/listar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">formulario_cadastro_agua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formulario Cadastro Água</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/painel/conta/medico/cadastrar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">formulario_listagem_agua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formulario Listagem Água</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/painel/conta/medico/listar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">formulario_cadastro_educacao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formulario Cadastro Educação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/painel/conta/paciente/cadastrar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">formulario_listagem_educacao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formulario Listagem Educação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/painel/conta/paciente/listar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">formulario_cadastro_saude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formulario Cadastro Saúde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/painel/conta/enfermeiro/cadastrar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">formulario_listagem_saude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formulario Listagem Saúde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/painel/conta/enfermeiro/listar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">input  text </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caixa de entrada Local Específico da Ocorrência</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ComboBox de municipios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caixa de selecao tipos de municipios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ComboBox de bairros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caixa de selecao tipos de bairros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">input  de data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data da Ocorrência</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ComboBox de  tipos especificos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caixa de selecao tipos especificos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">input  text Descrição Detalhada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caixa de entrada da Descrição Detalhada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">input  text Nome do Denunciante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caixa de entrada do Nome do Denunciante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">input  text entrada do Contacto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caixa de entrada do Contacto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">input  file Anexo (opcional)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caixa de entrada do Anexo (opcional)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">checkbox Deseja permanecer anônimo?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deseja permanecer anônimo?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ComboBox de Unidade de Saúde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unidade de Saúde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Município</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ComboBox de Bairro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bairro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">input  text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nome da Rua / Nº</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Local da Ocorrência</t>
+  </si>
+  <si>
+    <t xml:space="preserve">input  date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ComboBox de tipo de problema</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tipo de Problema</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Descrição Detalhada</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nome do Denunciante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contacto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anexo (opcional)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Escola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo de Problema</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nome do Denunciante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Importar Funcionalidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/api/seguranca/funcionalidade_importar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maldavia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pk_tipo_funcionalidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modulo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modulo_forms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modulo_menu_bars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modulo_tools_bars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">menu_bar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tool_bars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">footer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">menu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">itemMenu_redirect_app</t>
+  </si>
+  <si>
+    <t xml:space="preserve">itemMenu_redirect_form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">itemMenu_redirect_dialog_box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">itemMenu_action</t>
+  </si>
+  <si>
+    <t xml:space="preserve">button_redirect_app</t>
+  </si>
+  <si>
+    <t xml:space="preserve">button_redirect_form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">button_redirect_dialog_box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">button_action</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hyperlink_redirect_app</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hyperlink_redirect_form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hyperlink_redirect_dialog_box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hyperlink_action</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selectOne_redirect_app</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selectOne_redirect_form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selectOne_dialog_box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selectOne_action</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selectMultiple_menu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">checkbox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">checkbox_group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">radio_button_group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">input_text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">input_password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">input_number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">input_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">input_file_upload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">textarea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">switch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">accordion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">card_redirect_app</t>
+  </si>
+  <si>
+    <t xml:space="preserve">card_redirect_form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">card_redirect_dialog_box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">card_action</t>
+  </si>
+  <si>
+    <t xml:space="preserve">card_status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tab_container_vertical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tab_container_horizontal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fieldSet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pk_aplicacao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">salus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04-08-2025-12:00</t>
+  </si>
+  <si>
     <t xml:space="preserve">2025-07-30-11-59</t>
   </si>
   <si>
-    <t xml:space="preserve">pk_funcionalidade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">designacao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fk_tipo_funcionalidade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grupo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fk_funcionalidade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">funcionalidades_partilhadas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">url</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modulo_principal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modulo Principal da dashboard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modulo_seguranca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modulo Generico para Segurança</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modulo_funcionalidade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modulo Genérico para Funcionalidade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modulo_perfis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modulo Genérico para Perfis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modulo_contas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modulo Genérico para Contas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modulo_agua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modulo de Água</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modulo_educacao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modulo Educação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modulos_saude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modulo Saúde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Segurança</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menu de Segurança</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Água</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menu de no Água</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saúde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menu do Saúde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Educação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menu Educação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Funcionalidades</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menu de funcionalidades</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perfis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menu de Perfis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menu de Contas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005;2001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cadastrar Pefil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cadastrar Perfil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Listar Perfis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006;2001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cadastrar Funcionalidades</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cadastrar funcionalidades</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2003;2001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Listar Funcionalidades</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2004;2001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Associar Perfis as funcionalidades</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Associar Perfis ao um grupo de funcionalidade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cadastrar Conta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007;2001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Listar Contas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008;2001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cadastrar Água</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cadastrar das zonas com Água</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2011;2001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Listar  Água</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Listar as zonas com Água</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012;2001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cadastrar Saúde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013;2001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Listar Saúde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014;2001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cadastrar  Educação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cadastrar Educação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015;2001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Listar Educação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016;2001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">formulario_login</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Formulario de entrada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/login</t>
-  </si>
-  <si>
-    <t xml:space="preserve">formulario_erro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Formulario de erro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1000;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/error</t>
-  </si>
-  <si>
-    <t xml:space="preserve">formulario_inicial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Formulario Inicial da Dashboard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/painel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">formulario_cadastro_funcionalidade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Formulario de Cadastro Funcionalidades</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/painel/funcionalidade/criar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">formulario_listagem_funcionalidades</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Formulario de listagem Funcionalidades</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/painel/funcionalidade/listar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">formulario_perfis_funcionalidades</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Formulario de associacao dos perfis a um grupo de funcionalidades</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/painel/perfil/perfil_funcionalidade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">formulario_cadastro_perfis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Formulario de Cadastro Perfis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/painel/perfil/criar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">formulario_listagem_perfis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Formulario de listagem Perfis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/painel/perfil/listar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">formulario_cadastro_contas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Formulario de Cadastro Contas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/painel/conta/criar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">formulario_listagem_contas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Formulario de listagem Contas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/painel/conta/listar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">formulario_cadastro_agua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Formulario Cadastro Água</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/painel/conta/medico/cadastrar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">formulario_listagem_agua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Formulario Listagem Água</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/painel/conta/medico/listar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">formulario_cadastro_educacao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Formulario Cadastro Educação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/painel/conta/paciente/cadastrar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">formulario_listagem_educacao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Formulario Listagem Educação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/painel/conta/paciente/listar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">formulario_cadastro_saude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Formulario Cadastro Saúde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/painel/conta/enfermeiro/cadastrar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">formulario_listagem_saude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Formulario Listagem Saúde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/painel/conta/enfermeiro/listar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">input  text </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caixa de entrada Local Específico da Ocorrência</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ComboBox de municipios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caixa de selecao tipos de municipios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ComboBox de bairros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caixa de selecao tipos de bairros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">input  de data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data da Ocorrência</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ComboBox de  tipos especificos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caixa de selecao tipos especificos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">input  text Descrição Detalhada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caixa de entrada da Descrição Detalhada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">input  text Nome do Denunciante</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caixa de entrada do Nome do Denunciante</t>
-  </si>
-  <si>
-    <t xml:space="preserve">input  text entrada do Contacto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caixa de entrada do Contacto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">input  file Anexo (opcional)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caixa de entrada do Anexo (opcional)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">checkbox Deseja permanecer anônimo?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deseja permanecer anônimo?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ComboBox de Unidade de Saúde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unidade de Saúde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Município</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ComboBox de Bairro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bairro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">input  text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nome da Rua / Nº</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Local da Ocorrência</t>
-  </si>
-  <si>
-    <t xml:space="preserve">input  date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ComboBox de tipo de problema</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tipo de Problema</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Descrição Detalhada</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Nome do Denunciante</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contacto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anexo (opcional)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Escola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tipo de Problema</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Nome do Denunciante</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Importar Funcionalidade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/api/seguranca/funcionalidade_importar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maldavia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pk_tipo_funcionalidade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modulo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modulo_forms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modulo_menu_bars</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modulo_tools_bars</t>
-  </si>
-  <si>
-    <t xml:space="preserve">form</t>
-  </si>
-  <si>
-    <t xml:space="preserve">menu_bar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tool_bars</t>
-  </si>
-  <si>
-    <t xml:space="preserve">footer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">menu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">itemMenu_redirect_app</t>
-  </si>
-  <si>
-    <t xml:space="preserve">itemMenu_redirect_form</t>
-  </si>
-  <si>
-    <t xml:space="preserve">itemMenu_redirect_dialog_box</t>
-  </si>
-  <si>
-    <t xml:space="preserve">itemMenu_action</t>
-  </si>
-  <si>
-    <t xml:space="preserve">button_redirect_app</t>
-  </si>
-  <si>
-    <t xml:space="preserve">button_redirect_form</t>
-  </si>
-  <si>
-    <t xml:space="preserve">button_redirect_dialog_box</t>
-  </si>
-  <si>
-    <t xml:space="preserve">button_action</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hyperlink_redirect_app</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hyperlink_redirect_form</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hyperlink_redirect_dialog_box</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hyperlink_action</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selectOne_redirect_app</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selectOne_redirect_form</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selectOne_dialog_box</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selectOne_action</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selectMultiple_menu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">checkbox</t>
-  </si>
-  <si>
-    <t xml:space="preserve">checkbox_group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">radio_button_group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">input_text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">input_password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">input_number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">input_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">input_file_upload</t>
-  </si>
-  <si>
-    <t xml:space="preserve">textarea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">switch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">accordion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">card_redirect_app</t>
-  </si>
-  <si>
-    <t xml:space="preserve">card_redirect_form</t>
-  </si>
-  <si>
-    <t xml:space="preserve">card_redirect_dialog_box</t>
-  </si>
-  <si>
-    <t xml:space="preserve">card_action</t>
-  </si>
-  <si>
-    <t xml:space="preserve">card_status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tab_container_vertical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tab_container_horizontal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">table</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fieldSet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pk_aplicacao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">salus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04-08-2025-12:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">[1 – 999] – módulos</t>
   </si>
   <si>
@@ -692,9 +699,6 @@
   </si>
   <si>
     <t xml:space="preserve">Aplicação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
   </si>
   <si>
     <t xml:space="preserve">2</t>
@@ -1445,10 +1449,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1463,6 +1463,10 @@
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1540,8 +1544,8 @@
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A78" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1568,53 +1572,53 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="n">
-        <v>12300000000000000</v>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="n">
-        <v>1</v>
+      <c r="A5" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5" s="6" t="n">
         <v>1</v>
@@ -1633,10 +1637,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>1</v>
@@ -1655,10 +1659,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D7" s="6" t="n">
         <v>1</v>
@@ -1677,10 +1681,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D8" s="6" t="n">
         <v>1</v>
@@ -1699,10 +1703,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D9" s="6" t="n">
         <v>1</v>
@@ -1721,10 +1725,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" s="6" t="n">
         <v>1</v>
@@ -1743,10 +1747,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" s="6" t="n">
         <v>1</v>
@@ -1765,10 +1769,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D12" s="6" t="n">
         <v>1</v>
@@ -1787,10 +1791,10 @@
         <v>1000</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D13" s="6" t="n">
         <v>9</v>
@@ -1809,10 +1813,10 @@
         <v>1002</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D14" s="6" t="n">
         <v>9</v>
@@ -1831,10 +1835,10 @@
         <v>1003</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D15" s="6" t="n">
         <v>9</v>
@@ -1853,10 +1857,10 @@
         <v>1004</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D16" s="6" t="n">
         <v>9</v>
@@ -1875,10 +1879,10 @@
         <v>1005</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D17" s="6" t="n">
         <v>9</v>
@@ -1897,10 +1901,10 @@
         <v>1006</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D18" s="6" t="n">
         <v>9</v>
@@ -1919,10 +1923,10 @@
         <v>1007</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D19" s="6" t="n">
         <v>11</v>
@@ -1934,7 +1938,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H19" s="10"/>
     </row>
@@ -1943,10 +1947,10 @@
         <v>1008</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D20" s="6" t="n">
         <v>9</v>
@@ -1965,10 +1969,10 @@
         <v>1009</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D21" s="6" t="n">
         <v>11</v>
@@ -1980,7 +1984,7 @@
         <v>1006</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H21" s="10"/>
     </row>
@@ -1989,10 +1993,10 @@
         <v>1010</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D22" s="6" t="n">
         <v>11</v>
@@ -2004,7 +2008,7 @@
         <v>1005</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H22" s="8"/>
     </row>
@@ -2013,10 +2017,10 @@
         <v>1011</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D23" s="6" t="n">
         <v>11</v>
@@ -2028,7 +2032,7 @@
         <v>1005</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H23" s="8"/>
     </row>
@@ -2037,10 +2041,10 @@
         <v>1012</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D24" s="6" t="n">
         <v>11</v>
@@ -2059,10 +2063,10 @@
         <v>1013</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D25" s="6" t="n">
         <v>11</v>
@@ -2074,7 +2078,7 @@
         <v>1007</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H25" s="10"/>
     </row>
@@ -2083,10 +2087,10 @@
         <v>1014</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D26" s="6" t="n">
         <v>11</v>
@@ -2098,7 +2102,7 @@
         <v>1007</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H26" s="10"/>
     </row>
@@ -2107,10 +2111,10 @@
         <v>1201</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D27" s="6" t="n">
         <v>11</v>
@@ -2122,7 +2126,7 @@
         <v>1002</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H27" s="8"/>
     </row>
@@ -2131,10 +2135,10 @@
         <v>1202</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D28" s="6" t="n">
         <v>11</v>
@@ -2146,7 +2150,7 @@
         <v>1002</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H28" s="8"/>
     </row>
@@ -2155,10 +2159,10 @@
         <v>1301</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D29" s="6" t="n">
         <v>11</v>
@@ -2170,7 +2174,7 @@
         <v>1003</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H29" s="8"/>
     </row>
@@ -2179,10 +2183,10 @@
         <v>1302</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D30" s="6" t="n">
         <v>11</v>
@@ -2194,7 +2198,7 @@
         <v>1003</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H30" s="8"/>
     </row>
@@ -2203,10 +2207,10 @@
         <v>1401</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D31" s="6" t="n">
         <v>11</v>
@@ -2218,7 +2222,7 @@
         <v>1004</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H31" s="8"/>
     </row>
@@ -2227,10 +2231,10 @@
         <v>1402</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D32" s="6" t="n">
         <v>11</v>
@@ -2242,7 +2246,7 @@
         <v>1004</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H32" s="8"/>
     </row>
@@ -2251,10 +2255,10 @@
         <v>2000</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D33" s="6" t="n">
         <v>5</v>
@@ -2267,7 +2271,7 @@
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2275,10 +2279,10 @@
         <v>2001</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D34" s="6" t="n">
         <v>5</v>
@@ -2290,10 +2294,10 @@
         <v>1</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2301,10 +2305,10 @@
         <v>2002</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D35" s="6" t="n">
         <v>5</v>
@@ -2316,10 +2320,10 @@
         <v>1</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2327,10 +2331,10 @@
         <v>2003</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D36" s="6" t="n">
         <v>5</v>
@@ -2342,10 +2346,10 @@
         <v>1010</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2353,10 +2357,10 @@
         <v>2004</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D37" s="6" t="n">
         <v>5</v>
@@ -2368,10 +2372,10 @@
         <v>1011</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2379,10 +2383,10 @@
         <v>2005</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D38" s="6" t="n">
         <v>5</v>
@@ -2394,10 +2398,10 @@
         <v>1012</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2405,10 +2409,10 @@
         <v>2006</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D39" s="6" t="n">
         <v>5</v>
@@ -2420,10 +2424,10 @@
         <v>1008</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2431,10 +2435,10 @@
         <v>2007</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D40" s="6" t="n">
         <v>5</v>
@@ -2446,10 +2450,10 @@
         <v>1009</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2457,10 +2461,10 @@
         <v>2008</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D41" s="6" t="n">
         <v>5</v>
@@ -2472,10 +2476,10 @@
         <v>1013</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2483,10 +2487,10 @@
         <v>2009</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D42" s="6" t="n">
         <v>5</v>
@@ -2498,10 +2502,10 @@
         <v>1014</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2509,10 +2513,10 @@
         <v>2010</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D43" s="6" t="n">
         <v>5</v>
@@ -2524,10 +2528,10 @@
         <v>1201</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2535,10 +2539,10 @@
         <v>2011</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D44" s="6" t="n">
         <v>5</v>
@@ -2550,10 +2554,10 @@
         <v>1202</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2561,10 +2565,10 @@
         <v>2012</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D45" s="6" t="n">
         <v>5</v>
@@ -2576,10 +2580,10 @@
         <v>1401</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2587,10 +2591,10 @@
         <v>2013</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D46" s="6" t="n">
         <v>5</v>
@@ -2602,10 +2606,10 @@
         <v>1402</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2613,10 +2617,10 @@
         <v>2014</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D47" s="6" t="n">
         <v>5</v>
@@ -2628,10 +2632,10 @@
         <v>1301</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2639,10 +2643,10 @@
         <v>2015</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D48" s="6" t="n">
         <v>5</v>
@@ -2654,10 +2658,10 @@
         <v>1302</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2665,10 +2669,10 @@
         <v>2100</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D49" s="13" t="n">
         <v>30</v>
@@ -2687,10 +2691,10 @@
         <v>2101</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D50" s="13" t="n">
         <v>25</v>
@@ -2709,10 +2713,10 @@
         <v>2102</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D51" s="13" t="n">
         <v>25</v>
@@ -2731,10 +2735,10 @@
         <v>2103</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D52" s="13" t="n">
         <v>33</v>
@@ -2753,10 +2757,10 @@
         <v>2104</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D53" s="13" t="n">
         <v>25</v>
@@ -2775,10 +2779,10 @@
         <v>2105</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D54" s="13" t="n">
         <v>30</v>
@@ -2797,10 +2801,10 @@
         <v>2106</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D55" s="13" t="n">
         <v>30</v>
@@ -2819,10 +2823,10 @@
         <v>2107</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D56" s="13" t="n">
         <v>30</v>
@@ -2841,10 +2845,10 @@
         <v>2108</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D57" s="13" t="n">
         <v>34</v>
@@ -2863,10 +2867,10 @@
         <v>2109</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D58" s="13" t="n">
         <v>27</v>
@@ -2885,10 +2889,10 @@
         <v>2200</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D59" s="13" t="n">
         <v>25</v>
@@ -2907,10 +2911,10 @@
         <v>2201</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D60" s="13" t="n">
         <v>25</v>
@@ -2929,10 +2933,10 @@
         <v>2202</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D61" s="13" t="n">
         <v>25</v>
@@ -2951,10 +2955,10 @@
         <v>2203</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D62" s="13" t="n">
         <v>30</v>
@@ -2973,10 +2977,10 @@
         <v>2204</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D63" s="13" t="n">
         <v>30</v>
@@ -2995,10 +2999,10 @@
         <v>2205</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D64" s="13" t="n">
         <v>33</v>
@@ -3017,10 +3021,10 @@
         <v>2206</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D65" s="13" t="n">
         <v>25</v>
@@ -3039,10 +3043,10 @@
         <v>2207</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D66" s="13" t="n">
         <v>30</v>
@@ -3061,10 +3065,10 @@
         <v>2208</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D67" s="13" t="n">
         <v>30</v>
@@ -3083,10 +3087,10 @@
         <v>2209</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D68" s="13" t="n">
         <v>30</v>
@@ -3105,10 +3109,10 @@
         <v>2210</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D69" s="13" t="n">
         <v>34</v>
@@ -3127,10 +3131,10 @@
         <v>2211</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D70" s="13" t="n">
         <v>27</v>
@@ -3149,10 +3153,10 @@
         <v>2300</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D71" s="13" t="n">
         <v>30</v>
@@ -3171,10 +3175,10 @@
         <v>2301</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D72" s="13" t="n">
         <v>25</v>
@@ -3193,10 +3197,10 @@
         <v>2302</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D73" s="13" t="n">
         <v>25</v>
@@ -3215,10 +3219,10 @@
         <v>2303</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D74" s="13" t="n">
         <v>30</v>
@@ -3237,10 +3241,10 @@
         <v>2304</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D75" s="13" t="n">
         <v>33</v>
@@ -3259,10 +3263,10 @@
         <v>2305</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D76" s="13" t="n">
         <v>25</v>
@@ -3281,10 +3285,10 @@
         <v>2306</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D77" s="13" t="n">
         <v>30</v>
@@ -3303,10 +3307,10 @@
         <v>2307</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D78" s="13" t="n">
         <v>30</v>
@@ -3325,10 +3329,10 @@
         <v>2308</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D79" s="13" t="n">
         <v>30</v>
@@ -3347,10 +3351,10 @@
         <v>2309</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D80" s="13" t="n">
         <v>34</v>
@@ -3369,10 +3373,10 @@
         <v>2310</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D81" s="13" t="n">
         <v>27</v>
@@ -3391,10 +3395,10 @@
         <v>2400</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D82" s="13" t="n">
         <v>34</v>
@@ -3407,16 +3411,12 @@
       </c>
       <c r="G82" s="9"/>
       <c r="H82" s="9" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A4:H4">
-    <sortState ref="A5:H4">
-      <sortCondition ref="A5:A4" customList=""/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A4:H82"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3433,56 +3433,56 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B1048576"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A39" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.45703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="14" width="23.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.86"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>163</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="15" t="s">
-        <v>3</v>
+      <c r="A3" s="14" t="s">
+        <v>4</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" s="18" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" s="17" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="n">
+      <c r="A5" s="18" t="n">
         <v>1</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3491,7 +3491,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3500,7 +3500,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3509,7 +3509,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3518,7 +3518,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3527,7 +3527,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3536,7 +3536,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3545,7 +3545,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3554,7 +3554,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3563,7 +3563,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3572,7 +3572,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3581,7 +3581,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3590,7 +3590,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3599,7 +3599,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3608,7 +3608,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3617,7 +3617,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3626,7 +3626,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3635,7 +3635,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3644,7 +3644,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3653,7 +3653,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3662,7 +3662,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3671,7 +3671,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3680,7 +3680,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3689,7 +3689,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3698,7 +3698,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3707,7 +3707,7 @@
         <v>26</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3716,7 +3716,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3725,7 +3725,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3734,7 +3734,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3743,7 +3743,7 @@
         <v>30</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3752,7 +3752,7 @@
         <v>31</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3761,7 +3761,7 @@
         <v>32</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3770,7 +3770,7 @@
         <v>33</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3779,7 +3779,7 @@
         <v>34</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3788,7 +3788,7 @@
         <v>35</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3797,7 +3797,7 @@
         <v>36</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3806,7 +3806,7 @@
         <v>37</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3815,7 +3815,7 @@
         <v>38</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3824,7 +3824,7 @@
         <v>39</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3833,7 +3833,7 @@
         <v>40</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3842,7 +3842,7 @@
         <v>41</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3851,7 +3851,7 @@
         <v>42</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3860,7 +3860,7 @@
         <v>43</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3869,7 +3869,7 @@
         <v>44</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3878,7 +3878,7 @@
         <v>45</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3887,7 +3887,7 @@
         <v>46</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3896,10 +3896,9 @@
         <v>47</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>212</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0" footer="0"/>
@@ -3922,7 +3921,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.45703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.85"/>
@@ -3933,7 +3932,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="20" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>0</v>
@@ -3942,7 +3941,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3950,10 +3949,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -4973,12 +4972,12 @@
   <dimension ref="A1:AC1002"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="D80" activeCellId="0" sqref="D80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.45703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="39.57"/>
@@ -4994,20 +4993,20 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15" t="s">
-        <v>3</v>
+      <c r="A1" s="14" t="s">
+        <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>4</v>
+        <v>216</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G1" s="6"/>
       <c r="H1" s="23"/>
@@ -5034,32 +5033,32 @@
       <c r="AC1" s="24"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="15" t="s">
-        <v>5</v>
+      <c r="A2" s="14" t="s">
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="15" t="s">
         <v>9</v>
       </c>
+      <c r="F2" s="14" t="s">
+        <v>10</v>
+      </c>
       <c r="G2" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="J2" s="25"/>
       <c r="K2" s="2"/>
@@ -5084,13 +5083,13 @@
     </row>
     <row r="3" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -5121,13 +5120,13 @@
     </row>
     <row r="4" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>222</v>
+        <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" s="3" t="n">
         <v>1</v>
@@ -5136,7 +5135,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G4" s="26"/>
       <c r="H4" s="26"/>
@@ -5164,13 +5163,13 @@
     </row>
     <row r="5" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" s="3" t="n">
         <v>1</v>
@@ -5179,7 +5178,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>222</v>
+        <v>13</v>
       </c>
       <c r="G5" s="26"/>
       <c r="H5" s="26"/>
@@ -5207,13 +5206,13 @@
     </row>
     <row r="6" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D6" s="3" t="n">
         <v>1</v>
@@ -5222,7 +5221,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G6" s="26"/>
       <c r="H6" s="26"/>
@@ -5250,13 +5249,13 @@
     </row>
     <row r="7" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7" s="3" t="n">
         <v>1</v>
@@ -5265,7 +5264,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G7" s="26"/>
       <c r="H7" s="26"/>
@@ -5293,13 +5292,13 @@
     </row>
     <row r="8" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D8" s="3" t="n">
         <v>1</v>
@@ -5308,7 +5307,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G8" s="26"/>
       <c r="H8" s="26"/>
@@ -5336,13 +5335,13 @@
     </row>
     <row r="9" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" s="3" t="n">
         <v>1</v>
@@ -5351,7 +5350,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>222</v>
+        <v>13</v>
       </c>
       <c r="G9" s="26"/>
       <c r="H9" s="26"/>
@@ -5379,13 +5378,13 @@
     </row>
     <row r="10" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" s="3" t="n">
         <v>1</v>
@@ -5394,7 +5393,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>222</v>
+        <v>13</v>
       </c>
       <c r="G10" s="26"/>
       <c r="H10" s="26"/>
@@ -5422,13 +5421,13 @@
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D11" s="3" t="n">
         <v>1</v>
@@ -5437,7 +5436,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>222</v>
+        <v>13</v>
       </c>
       <c r="G11" s="26"/>
       <c r="H11" s="26"/>
@@ -5496,13 +5495,13 @@
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D13" s="3" t="n">
         <v>6</v>
@@ -5511,7 +5510,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="26"/>
@@ -5537,13 +5536,13 @@
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D15" s="3" t="n">
         <v>5</v>
@@ -5552,11 +5551,11 @@
         <v>0</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="28" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -5567,13 +5566,13 @@
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D16" s="3" t="n">
         <v>5</v>
@@ -5582,13 +5581,13 @@
         <v>0</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H16" s="28" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -5598,13 +5597,13 @@
     </row>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D17" s="3" t="n">
         <v>5</v>
@@ -5613,13 +5612,13 @@
         <v>0</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>222</v>
+        <v>13</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H17" s="28" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -5629,13 +5628,13 @@
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D18" s="3" t="n">
         <v>5</v>
@@ -5644,13 +5643,13 @@
         <v>0</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -5660,13 +5659,13 @@
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D19" s="3" t="n">
         <v>5</v>
@@ -5675,13 +5674,13 @@
         <v>0</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -5691,13 +5690,13 @@
     </row>
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D20" s="3" t="n">
         <v>5</v>
@@ -5706,13 +5705,13 @@
         <v>0</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -5722,13 +5721,13 @@
     </row>
     <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D21" s="3" t="n">
         <v>5</v>
@@ -5737,13 +5736,13 @@
         <v>0</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -5753,13 +5752,13 @@
     </row>
     <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D22" s="3" t="n">
         <v>5</v>
@@ -5771,10 +5770,10 @@
         <v>5</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -5782,13 +5781,13 @@
     </row>
     <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D23" s="3" t="n">
         <v>5</v>
@@ -5800,10 +5799,10 @@
         <v>5</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -5811,13 +5810,13 @@
     </row>
     <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D24" s="3" t="n">
         <v>5</v>
@@ -5829,10 +5828,10 @@
         <v>4</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -5840,13 +5839,13 @@
     </row>
     <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D25" s="3" t="n">
         <v>5</v>
@@ -5861,7 +5860,7 @@
         <v>1000</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
@@ -5869,13 +5868,13 @@
     </row>
     <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D26" s="3" t="n">
         <v>5</v>
@@ -5890,7 +5889,7 @@
         <v>1000</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
@@ -5898,13 +5897,13 @@
     </row>
     <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D27" s="3" t="n">
         <v>5</v>
@@ -5919,7 +5918,7 @@
         <v>1000</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
@@ -5927,13 +5926,13 @@
     </row>
     <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D28" s="3" t="n">
         <v>5</v>
@@ -5948,7 +5947,7 @@
         <v>1000</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
@@ -5956,13 +5955,13 @@
     </row>
     <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D29" s="3" t="n">
         <v>5</v>
@@ -5977,7 +5976,7 @@
         <v>1000</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="1"/>
@@ -5985,13 +5984,13 @@
     </row>
     <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D30" s="3" t="n">
         <v>5</v>
@@ -6006,7 +6005,7 @@
         <v>1000</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I30" s="3"/>
       <c r="J30" s="1"/>
@@ -6026,13 +6025,13 @@
     </row>
     <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D32" s="3" t="n">
         <v>9</v>
@@ -6041,7 +6040,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="26"/>
@@ -6051,13 +6050,13 @@
     </row>
     <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D33" s="3" t="n">
         <v>9</v>
@@ -6066,7 +6065,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="26"/>
@@ -6076,13 +6075,13 @@
     </row>
     <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D34" s="3" t="n">
         <v>11</v>
@@ -6091,10 +6090,10 @@
         <v>0</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H34" s="26"/>
       <c r="I34" s="1"/>
@@ -6103,13 +6102,13 @@
     </row>
     <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D35" s="3" t="n">
         <v>11</v>
@@ -6118,10 +6117,10 @@
         <v>0</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H35" s="26"/>
       <c r="I35" s="1"/>
@@ -6143,13 +6142,13 @@
     </row>
     <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D37" s="3" t="n">
         <v>9</v>
@@ -6158,7 +6157,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G37" s="6"/>
       <c r="H37" s="28"/>
@@ -6168,13 +6167,13 @@
     </row>
     <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D38" s="3" t="n">
         <v>11</v>
@@ -6183,10 +6182,10 @@
         <v>0</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H38" s="28"/>
       <c r="I38" s="1"/>
@@ -6195,13 +6194,13 @@
     </row>
     <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D39" s="3" t="n">
         <v>11</v>
@@ -6210,10 +6209,10 @@
         <v>0</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H39" s="28"/>
       <c r="I39" s="1"/>
@@ -6235,13 +6234,13 @@
     </row>
     <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D41" s="3" t="n">
         <v>9</v>
@@ -6250,7 +6249,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G41" s="6"/>
       <c r="H41" s="28"/>
@@ -6260,13 +6259,13 @@
     </row>
     <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D42" s="3" t="n">
         <v>11</v>
@@ -6275,10 +6274,10 @@
         <v>0</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H42" s="28"/>
       <c r="I42" s="3"/>
@@ -6287,13 +6286,13 @@
     </row>
     <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D43" s="3" t="n">
         <v>11</v>
@@ -6302,10 +6301,10 @@
         <v>0</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H43" s="28"/>
       <c r="I43" s="3"/>
@@ -6327,13 +6326,13 @@
     </row>
     <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D45" s="3" t="n">
         <v>9</v>
@@ -6352,13 +6351,13 @@
     </row>
     <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D46" s="3" t="n">
         <v>11</v>
@@ -6370,7 +6369,7 @@
         <v>1200</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H46" s="26"/>
       <c r="I46" s="3"/>
@@ -6379,13 +6378,13 @@
     </row>
     <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D47" s="3" t="n">
         <v>11</v>
@@ -6397,7 +6396,7 @@
         <v>1200</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H47" s="26"/>
       <c r="I47" s="3"/>
@@ -6419,13 +6418,13 @@
     </row>
     <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D49" s="3" t="n">
         <v>9</v>
@@ -6444,13 +6443,13 @@
     </row>
     <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D50" s="3" t="n">
         <v>11</v>
@@ -6462,7 +6461,7 @@
         <v>1300</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H50" s="26"/>
       <c r="I50" s="3"/>
@@ -6471,13 +6470,13 @@
     </row>
     <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D51" s="3" t="n">
         <v>11</v>
@@ -6489,7 +6488,7 @@
         <v>1300</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H51" s="26"/>
       <c r="I51" s="3"/>
@@ -6498,13 +6497,13 @@
     </row>
     <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D52" s="3" t="n">
         <v>9</v>
@@ -6523,13 +6522,13 @@
     </row>
     <row r="53" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D53" s="3" t="n">
         <v>11</v>
@@ -6541,7 +6540,7 @@
         <v>1400</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H53" s="26"/>
       <c r="I53" s="3"/>
@@ -6550,13 +6549,13 @@
     </row>
     <row r="54" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D54" s="3" t="n">
         <v>11</v>
@@ -6568,7 +6567,7 @@
         <v>1400</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H54" s="26"/>
       <c r="I54" s="3"/>
@@ -6577,13 +6576,13 @@
     </row>
     <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D55" s="3" t="n">
         <v>9</v>
@@ -6602,13 +6601,13 @@
     </row>
     <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D56" s="3" t="n">
         <v>11</v>
@@ -6620,7 +6619,7 @@
         <v>1420</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H56" s="26"/>
       <c r="I56" s="3"/>
@@ -6629,13 +6628,13 @@
     </row>
     <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D57" s="3" t="n">
         <v>11</v>
@@ -6647,7 +6646,7 @@
         <v>1420</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H57" s="26"/>
       <c r="I57" s="3"/>
@@ -6659,10 +6658,10 @@
         <v>4000</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C58" s="26" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D58" s="3" t="n">
         <v>34</v>
@@ -6674,7 +6673,7 @@
         <v>1003</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H58" s="26"/>
       <c r="I58" s="3"/>
@@ -6686,10 +6685,10 @@
         <v>4001</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D59" s="3" t="n">
         <v>15</v>
@@ -6701,7 +6700,7 @@
         <v>1003</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H59" s="26"/>
       <c r="I59" s="3"/>
@@ -6713,10 +6712,10 @@
         <v>4002</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D60" s="3" t="n">
         <v>17</v>
@@ -6738,10 +6737,10 @@
         <v>4020</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D61" s="3" t="n">
         <v>30</v>
@@ -6763,10 +6762,10 @@
         <v>4021</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D62" s="3" t="n">
         <v>31</v>
@@ -6788,10 +6787,10 @@
         <v>4022</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D63" s="3" t="n">
         <v>15</v>
@@ -6813,10 +6812,10 @@
         <v>4030</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D64" s="3" t="n">
         <v>28</v>
@@ -6838,10 +6837,10 @@
         <v>4040</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D65" s="3" t="n">
         <v>30</v>
@@ -6853,7 +6852,7 @@
         <v>1006</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H65" s="26"/>
       <c r="I65" s="1"/>
@@ -6865,10 +6864,10 @@
         <v>4041</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D66" s="3" t="n">
         <v>30</v>
@@ -6880,7 +6879,7 @@
         <v>1006</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H66" s="26"/>
       <c r="I66" s="1"/>
@@ -6892,10 +6891,10 @@
         <v>4042</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D67" s="3" t="n">
         <v>15</v>
@@ -6907,7 +6906,7 @@
         <v>1006</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H67" s="26"/>
       <c r="I67" s="1"/>
@@ -6919,10 +6918,10 @@
         <v>4050</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D68" s="3" t="n">
         <v>45</v>
@@ -6934,7 +6933,7 @@
         <v>1007</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H68" s="26"/>
       <c r="I68" s="1"/>
@@ -6946,10 +6945,10 @@
         <v>4060</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D69" s="3" t="n">
         <v>30</v>
@@ -6961,7 +6960,7 @@
         <v>1009</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H69" s="26"/>
       <c r="I69" s="1"/>
@@ -6973,10 +6972,10 @@
         <v>4061</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D70" s="3" t="n">
         <v>30</v>
@@ -6988,7 +6987,7 @@
         <v>1009</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H70" s="26"/>
       <c r="I70" s="1"/>
@@ -7000,10 +6999,10 @@
         <v>4061</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D71" s="3" t="n">
         <v>31</v>
@@ -7015,7 +7014,7 @@
         <v>1009</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H71" s="26"/>
       <c r="I71" s="1"/>
@@ -7027,10 +7026,10 @@
         <v>4062</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D72" s="3" t="n">
         <v>33</v>
@@ -7042,7 +7041,7 @@
         <v>1009</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H72" s="26"/>
       <c r="I72" s="1"/>
@@ -7054,10 +7053,10 @@
         <v>4063</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D73" s="3" t="n">
         <v>25</v>
@@ -7069,7 +7068,7 @@
         <v>1009</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H73" s="26"/>
       <c r="I73" s="1"/>
@@ -7081,10 +7080,10 @@
         <v>4064</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D74" s="3" t="n">
         <v>25</v>
@@ -7096,7 +7095,7 @@
         <v>1009</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H74" s="26"/>
       <c r="I74" s="1"/>
@@ -7108,10 +7107,10 @@
         <v>4065</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D75" s="3" t="n">
         <v>30</v>
@@ -7123,7 +7122,7 @@
         <v>1009</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H75" s="26"/>
       <c r="I75" s="1"/>
@@ -7135,10 +7134,10 @@
         <v>4066</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D76" s="3" t="n">
         <v>30</v>
@@ -7150,7 +7149,7 @@
         <v>1009</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H76" s="26"/>
       <c r="I76" s="1"/>
@@ -7162,10 +7161,10 @@
         <v>4067</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D77" s="3" t="n">
         <v>30</v>
@@ -7177,7 +7176,7 @@
         <v>1009</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H77" s="26"/>
       <c r="I77" s="1"/>
@@ -7189,10 +7188,10 @@
         <v>4068</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D78" s="3" t="n">
         <v>30</v>
@@ -7204,7 +7203,7 @@
         <v>1009</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H78" s="26"/>
       <c r="I78" s="1"/>
@@ -7216,10 +7215,10 @@
         <v>4069</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D79" s="3" t="n">
         <v>30</v>
@@ -7231,7 +7230,7 @@
         <v>1009</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H79" s="26"/>
       <c r="I79" s="1"/>
@@ -7243,10 +7242,10 @@
         <v>4070</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D80" s="3" t="n">
         <v>25</v>
@@ -7258,7 +7257,7 @@
         <v>1009</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H80" s="28"/>
       <c r="I80" s="1"/>
@@ -7270,10 +7269,10 @@
         <v>4071</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D81" s="3" t="n">
         <v>25</v>
@@ -7285,7 +7284,7 @@
         <v>1009</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H81" s="28"/>
       <c r="I81" s="1"/>
@@ -7297,10 +7296,10 @@
         <v>4072</v>
       </c>
       <c r="B82" s="30" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C82" s="31" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D82" s="3" t="n">
         <v>25</v>
@@ -7309,10 +7308,10 @@
         <v>0</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H82" s="28"/>
       <c r="I82" s="1"/>
@@ -7324,10 +7323,10 @@
         <v>4073</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D83" s="3" t="n">
         <v>25</v>
@@ -7336,10 +7335,10 @@
         <v>0</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H83" s="28"/>
       <c r="I83" s="1"/>
@@ -7348,13 +7347,13 @@
     </row>
     <row r="84" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="6" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D84" s="3" t="n">
         <v>45</v>
@@ -7363,10 +7362,10 @@
         <v>0</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H84" s="28"/>
       <c r="I84" s="1"/>
@@ -7375,13 +7374,13 @@
     </row>
     <row r="85" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="6" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D85" s="3" t="n">
         <v>46</v>
@@ -7390,10 +7389,10 @@
         <v>0</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H85" s="28"/>
       <c r="I85" s="1"/>
@@ -7402,13 +7401,13 @@
     </row>
     <row r="86" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="6" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D86" s="3" t="n">
         <v>46</v>
@@ -7417,10 +7416,10 @@
         <v>0</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H86" s="28"/>
       <c r="I86" s="1"/>
@@ -7429,13 +7428,13 @@
     </row>
     <row r="87" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="6" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D87" s="3" t="n">
         <v>46</v>
@@ -7444,10 +7443,10 @@
         <v>0</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H87" s="28"/>
       <c r="I87" s="1"/>
@@ -7456,13 +7455,13 @@
     </row>
     <row r="88" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="6" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D88" s="3" t="n">
         <v>30</v>
@@ -7471,10 +7470,10 @@
         <v>0</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H88" s="28"/>
       <c r="I88" s="1"/>
@@ -7483,13 +7482,13 @@
     </row>
     <row r="89" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="6" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D89" s="3" t="n">
         <v>30</v>
@@ -7498,10 +7497,10 @@
         <v>0</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H89" s="28"/>
       <c r="I89" s="1"/>
@@ -7510,13 +7509,13 @@
     </row>
     <row r="90" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D90" s="3" t="n">
         <v>31</v>
@@ -7525,10 +7524,10 @@
         <v>0</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H90" s="28"/>
       <c r="I90" s="1"/>
@@ -7537,13 +7536,13 @@
     </row>
     <row r="91" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D91" s="3" t="n">
         <v>33</v>
@@ -7552,10 +7551,10 @@
         <v>0</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H91" s="28"/>
       <c r="I91" s="1"/>
@@ -7564,13 +7563,13 @@
     </row>
     <row r="92" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="6" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D92" s="3" t="n">
         <v>25</v>
@@ -7579,10 +7578,10 @@
         <v>0</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H92" s="28"/>
       <c r="I92" s="1"/>
@@ -7591,13 +7590,13 @@
     </row>
     <row r="93" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D93" s="3" t="n">
         <v>25</v>
@@ -7606,10 +7605,10 @@
         <v>0</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H93" s="28"/>
       <c r="I93" s="1"/>
@@ -7618,13 +7617,13 @@
     </row>
     <row r="94" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="6" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D94" s="3" t="n">
         <v>30</v>
@@ -7633,10 +7632,10 @@
         <v>0</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H94" s="28"/>
       <c r="I94" s="1"/>
@@ -7645,13 +7644,13 @@
     </row>
     <row r="95" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="6" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D95" s="3" t="n">
         <v>30</v>
@@ -7660,10 +7659,10 @@
         <v>0</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H95" s="28"/>
       <c r="I95" s="1"/>
@@ -7672,13 +7671,13 @@
     </row>
     <row r="96" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="6" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D96" s="3" t="n">
         <v>30</v>
@@ -7687,10 +7686,10 @@
         <v>0</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H96" s="28"/>
       <c r="I96" s="1"/>
@@ -7699,13 +7698,13 @@
     </row>
     <row r="97" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="6" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D97" s="3" t="n">
         <v>30</v>
@@ -7714,10 +7713,10 @@
         <v>0</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H97" s="28"/>
       <c r="I97" s="1"/>
@@ -7726,13 +7725,13 @@
     </row>
     <row r="98" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="6" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D98" s="3" t="n">
         <v>30</v>
@@ -7741,10 +7740,10 @@
         <v>0</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H98" s="28"/>
       <c r="I98" s="1"/>
@@ -7753,13 +7752,13 @@
     </row>
     <row r="99" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D99" s="3" t="n">
         <v>25</v>
@@ -7768,10 +7767,10 @@
         <v>0</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H99" s="28"/>
       <c r="I99" s="1"/>
@@ -7780,13 +7779,13 @@
     </row>
     <row r="100" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="6" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D100" s="3" t="n">
         <v>25</v>
@@ -7795,10 +7794,10 @@
         <v>0</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H100" s="28"/>
       <c r="I100" s="1"/>
@@ -7807,13 +7806,13 @@
     </row>
     <row r="101" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="6" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D101" s="3" t="n">
         <v>25</v>
@@ -7822,10 +7821,10 @@
         <v>0</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H101" s="28"/>
       <c r="I101" s="1"/>
@@ -7834,13 +7833,13 @@
     </row>
     <row r="102" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="6" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D102" s="3" t="n">
         <v>25</v>
@@ -7849,10 +7848,10 @@
         <v>0</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H102" s="28"/>
       <c r="I102" s="1"/>
@@ -7861,13 +7860,13 @@
     </row>
     <row r="103" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="6" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D103" s="3" t="n">
         <v>25</v>
@@ -7876,10 +7875,10 @@
         <v>0</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H103" s="28"/>
       <c r="I103" s="1"/>
@@ -7888,13 +7887,13 @@
     </row>
     <row r="104" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="6" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D104" s="3" t="n">
         <v>30</v>
@@ -7903,10 +7902,10 @@
         <v>0</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H104" s="28"/>
       <c r="I104" s="1"/>
@@ -7915,13 +7914,13 @@
     </row>
     <row r="105" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="6" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D105" s="3" t="n">
         <v>45</v>
@@ -7930,10 +7929,10 @@
         <v>0</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H105" s="28"/>
       <c r="I105" s="1"/>
@@ -7942,13 +7941,13 @@
     </row>
     <row r="106" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="6" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D106" s="3" t="n">
         <v>30</v>
@@ -7957,10 +7956,10 @@
         <v>0</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H106" s="28"/>
       <c r="I106" s="1"/>
@@ -7969,13 +7968,13 @@
     </row>
     <row r="107" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="6" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D107" s="3" t="n">
         <v>30</v>
@@ -7984,10 +7983,10 @@
         <v>0</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H107" s="28"/>
       <c r="I107" s="1"/>
@@ -7996,13 +7995,13 @@
     </row>
     <row r="108" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="6" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D108" s="3" t="n">
         <v>31</v>
@@ -8011,10 +8010,10 @@
         <v>0</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H108" s="28"/>
       <c r="I108" s="1"/>
@@ -8023,13 +8022,13 @@
     </row>
     <row r="109" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="6" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D109" s="3" t="n">
         <v>33</v>
@@ -8038,10 +8037,10 @@
         <v>0</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H109" s="28"/>
       <c r="I109" s="1"/>
@@ -8050,13 +8049,13 @@
     </row>
     <row r="110" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="6" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D110" s="3" t="n">
         <v>25</v>
@@ -8065,10 +8064,10 @@
         <v>0</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H110" s="28"/>
       <c r="I110" s="1"/>
@@ -8077,13 +8076,13 @@
     </row>
     <row r="111" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="6" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D111" s="3" t="n">
         <v>25</v>
@@ -8092,10 +8091,10 @@
         <v>0</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H111" s="28"/>
       <c r="I111" s="1"/>
@@ -8104,13 +8103,13 @@
     </row>
     <row r="112" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="6" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D112" s="3" t="n">
         <v>30</v>
@@ -8119,10 +8118,10 @@
         <v>0</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H112" s="28"/>
       <c r="I112" s="1"/>
@@ -8131,13 +8130,13 @@
     </row>
     <row r="113" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="6" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D113" s="3" t="n">
         <v>30</v>
@@ -8146,10 +8145,10 @@
         <v>0</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H113" s="28"/>
       <c r="I113" s="1"/>
@@ -8158,13 +8157,13 @@
     </row>
     <row r="114" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="6" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D114" s="3" t="n">
         <v>30</v>
@@ -8173,10 +8172,10 @@
         <v>0</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H114" s="28"/>
       <c r="I114" s="1"/>
@@ -8185,13 +8184,13 @@
     </row>
     <row r="115" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D115" s="3" t="n">
         <v>30</v>
@@ -8200,10 +8199,10 @@
         <v>0</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H115" s="28"/>
       <c r="I115" s="1"/>
@@ -8212,13 +8211,13 @@
     </row>
     <row r="116" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="6" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D116" s="3" t="n">
         <v>30</v>
@@ -8227,10 +8226,10 @@
         <v>0</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H116" s="28"/>
       <c r="I116" s="1"/>
@@ -8239,13 +8238,13 @@
     </row>
     <row r="117" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="6" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D117" s="3" t="n">
         <v>25</v>
@@ -8254,10 +8253,10 @@
         <v>0</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H117" s="28"/>
       <c r="I117" s="1"/>
@@ -8266,13 +8265,13 @@
     </row>
     <row r="118" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="6" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D118" s="3" t="n">
         <v>25</v>
@@ -8281,10 +8280,10 @@
         <v>0</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H118" s="28"/>
       <c r="I118" s="1"/>
@@ -8293,13 +8292,13 @@
     </row>
     <row r="119" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="6" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D119" s="3" t="n">
         <v>25</v>
@@ -8308,10 +8307,10 @@
         <v>0</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H119" s="28"/>
       <c r="I119" s="1"/>
@@ -8320,13 +8319,13 @@
     </row>
     <row r="120" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D120" s="3" t="n">
         <v>30</v>
@@ -8335,10 +8334,10 @@
         <v>0</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H120" s="28"/>
       <c r="I120" s="1"/>
@@ -8347,13 +8346,13 @@
     </row>
     <row r="121" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="6" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D121" s="3" t="n">
         <v>25</v>
@@ -8362,10 +8361,10 @@
         <v>0</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H121" s="28"/>
       <c r="I121" s="1"/>
@@ -8374,13 +8373,13 @@
     </row>
     <row r="122" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="6" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D122" s="3" t="n">
         <v>45</v>
@@ -8389,10 +8388,10 @@
         <v>0</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G122" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H122" s="28"/>
       <c r="I122" s="1"/>
@@ -8414,13 +8413,13 @@
     </row>
     <row r="124" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D124" s="3" t="n">
         <v>30</v>
@@ -8429,10 +8428,10 @@
         <v>0</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H124" s="28"/>
       <c r="I124" s="1"/>
@@ -8441,13 +8440,13 @@
     </row>
     <row r="125" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D125" s="3" t="n">
         <v>30</v>
@@ -8456,10 +8455,10 @@
         <v>0</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H125" s="28"/>
       <c r="I125" s="1"/>
@@ -8468,13 +8467,13 @@
     </row>
     <row r="126" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D126" s="3" t="n">
         <v>31</v>
@@ -8483,10 +8482,10 @@
         <v>0</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H126" s="28"/>
       <c r="I126" s="1"/>
@@ -8495,13 +8494,13 @@
     </row>
     <row r="127" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D127" s="3" t="n">
         <v>33</v>
@@ -8510,10 +8509,10 @@
         <v>0</v>
       </c>
       <c r="F127" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G127" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H127" s="28"/>
       <c r="I127" s="1"/>
@@ -8522,13 +8521,13 @@
     </row>
     <row r="128" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="6" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D128" s="3" t="n">
         <v>25</v>
@@ -8537,10 +8536,10 @@
         <v>0</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H128" s="28"/>
       <c r="I128" s="1"/>
@@ -8549,13 +8548,13 @@
     </row>
     <row r="129" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D129" s="3" t="n">
         <v>25</v>
@@ -8564,10 +8563,10 @@
         <v>0</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H129" s="28"/>
       <c r="I129" s="1"/>
@@ -8576,13 +8575,13 @@
     </row>
     <row r="130" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="6" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D130" s="3" t="n">
         <v>30</v>
@@ -8591,10 +8590,10 @@
         <v>0</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H130" s="28"/>
       <c r="I130" s="1"/>
@@ -8603,13 +8602,13 @@
     </row>
     <row r="131" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="6" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D131" s="3" t="n">
         <v>30</v>
@@ -8618,10 +8617,10 @@
         <v>0</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H131" s="28"/>
       <c r="I131" s="1"/>
@@ -8630,13 +8629,13 @@
     </row>
     <row r="132" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="6" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D132" s="3" t="n">
         <v>30</v>
@@ -8645,10 +8644,10 @@
         <v>0</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G132" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H132" s="28"/>
       <c r="I132" s="1"/>
@@ -8657,13 +8656,13 @@
     </row>
     <row r="133" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D133" s="3" t="n">
         <v>30</v>
@@ -8672,10 +8671,10 @@
         <v>0</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H133" s="28"/>
       <c r="I133" s="1"/>
@@ -8684,13 +8683,13 @@
     </row>
     <row r="134" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="6" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D134" s="3" t="n">
         <v>30</v>
@@ -8699,10 +8698,10 @@
         <v>0</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G134" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H134" s="28"/>
       <c r="I134" s="1"/>
@@ -8711,13 +8710,13 @@
     </row>
     <row r="135" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="6" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D135" s="3" t="n">
         <v>25</v>
@@ -8726,10 +8725,10 @@
         <v>0</v>
       </c>
       <c r="F135" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H135" s="28"/>
       <c r="I135" s="1"/>
@@ -8738,13 +8737,13 @@
     </row>
     <row r="136" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="6" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D136" s="3" t="n">
         <v>25</v>
@@ -8753,10 +8752,10 @@
         <v>0</v>
       </c>
       <c r="F136" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G136" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H136" s="28"/>
       <c r="I136" s="1"/>
@@ -8765,13 +8764,13 @@
     </row>
     <row r="137" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="6" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D137" s="3" t="n">
         <v>25</v>
@@ -8780,10 +8779,10 @@
         <v>0</v>
       </c>
       <c r="F137" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H137" s="28"/>
       <c r="I137" s="1"/>
@@ -8792,13 +8791,13 @@
     </row>
     <row r="138" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="6" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D138" s="3" t="n">
         <v>30</v>
@@ -8807,10 +8806,10 @@
         <v>0</v>
       </c>
       <c r="F138" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H138" s="28"/>
       <c r="I138" s="1"/>
@@ -8819,13 +8818,13 @@
     </row>
     <row r="139" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="6" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D139" s="3" t="n">
         <v>45</v>
@@ -8834,10 +8833,10 @@
         <v>0</v>
       </c>
       <c r="F139" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H139" s="28"/>
       <c r="I139" s="1"/>

--- a/Funcionalidade.xlsx
+++ b/Funcionalidade.xlsx
@@ -14,8 +14,8 @@
     <sheet name="funcionalidade (2)" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">funcionalidade!$A$4:$H$4</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">funcionalidade!$A$4:$H$74</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">funcionalidade!$A$4:$H$74</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">funcionalidade!$A$4:$H$4</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">data</t>
   </si>
   <si>
-    <t xml:space="preserve">2026-01-04-22-04</t>
+    <t xml:space="preserve">2026-01-05-11-40</t>
   </si>
   <si>
     <t xml:space="preserve">pk_funcionalidade</t>
@@ -3333,7 +3333,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:H4"/>
+  <autoFilter ref="A4:H74"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Funcionalidade.xlsx
+++ b/Funcionalidade.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="funcionalidade" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,8 +14,8 @@
     <sheet name="funcionalidade (2)" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">funcionalidade!$A$4:$H$74</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">funcionalidade!$A$4:$H$4</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">funcionalidade!$A$4:$H$4</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">funcionalidade!$A$4:$H$74</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">data</t>
   </si>
   <si>
-    <t xml:space="preserve">2026-01-05-11-40</t>
+    <t xml:space="preserve">2026-01-10-12-19</t>
   </si>
   <si>
     <t xml:space="preserve">pk_funcionalidade</t>
@@ -1577,7 +1577,7 @@
   </sheetPr>
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="124" zoomScaleNormal="124" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -3333,7 +3333,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:H74"/>
+  <autoFilter ref="A4:H4"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3352,7 +3352,7 @@
   </sheetPr>
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="124" zoomScaleNormal="124" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -3834,7 +3834,7 @@
   </sheetPr>
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="124" zoomScaleNormal="124" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -4888,7 +4888,7 @@
   </sheetPr>
   <dimension ref="A1:AC1002"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="124" zoomScaleNormal="124" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="C131" activeCellId="0" sqref="C131"/>

--- a/Funcionalidade.xlsx
+++ b/Funcionalidade.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="funcionalidade" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,8 +13,8 @@
     <sheet name="aplicacao" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">funcionalidade!$A$4:$H$73</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">funcionalidade!$A$4:$H$4</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">funcionalidade!$A$4:$H$4</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">funcionalidade!$A$4:$H$69</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="526">
   <si>
     <t xml:space="preserve">nome</t>
   </si>
@@ -37,13 +37,13 @@
     <t xml:space="preserve">descricao</t>
   </si>
   <si>
-    <t xml:space="preserve">Estrutura expansível com múltiplos níveis</t>
+    <t xml:space="preserve">Funcionalidade</t>
   </si>
   <si>
     <t xml:space="preserve">data</t>
   </si>
   <si>
-    <t xml:space="preserve">2026-01-12-19-58</t>
+    <t xml:space="preserve">2026-01-16-20-00</t>
   </si>
   <si>
     <t xml:space="preserve">pk_funcionalidade</t>
@@ -58,7 +58,7 @@
     <t xml:space="preserve">grupo</t>
   </si>
   <si>
-    <t xml:space="preserve">fk_funcionalidade</t>
+    <t xml:space="preserve">fk_funcionalidade_pai</t>
   </si>
   <si>
     <t xml:space="preserve">funcionalidades_partilhadas</t>
@@ -70,7 +70,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">sistema_pnd</t>
+    <t xml:space="preserve">sistema</t>
   </si>
   <si>
     <t xml:space="preserve">Sistema PND - Plataforma Nacional de Denúncias</t>
@@ -109,7 +109,7 @@
     <t xml:space="preserve">4</t>
   </si>
   <si>
-    <t xml:space="preserve">mod_seguranca</t>
+    <t xml:space="preserve">modulo_seguranca</t>
   </si>
   <si>
     <t xml:space="preserve">Módulo de Segurança</t>
@@ -169,201 +169,165 @@
     <t xml:space="preserve">Menu Relatórios</t>
   </si>
   <si>
-    <t xml:space="preserve">1003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saúde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menu do Saúde</t>
+    <t xml:space="preserve">200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">submenu_funcionalidades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funcionalidades do Sistema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">submenu_configuracoes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configurações do Sistema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">submenu_agua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serviço de Água</t>
+  </si>
+  <si>
+    <t xml:space="preserve">203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">submenu_saude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serviço de Saúde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">submenu_educacao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serviço de Educação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">submenu_perfis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perfis de Usuário</t>
+  </si>
+  <si>
+    <t xml:space="preserve">211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">submenu_contas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contas de Usuário</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2003;2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/painel/funcionalidade/criar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">submenu_auditoria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auditoria do Sistema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2004;2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/admin/funcionalidades/criar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acao_cad_func</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cadastrar Funcionalidade</t>
   </si>
   <si>
     <t xml:space="preserve">9</t>
   </si>
   <si>
-    <t xml:space="preserve">200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">submenu_funcionalidades</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Funcionalidades do Sistema</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">submenu_configuracoes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Configurações do Sistema</t>
-  </si>
-  <si>
-    <t xml:space="preserve">202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">submenu_agua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serviço de Água</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005;2001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">submenu_saude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serviço de Saúde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">submenu_educacao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serviço de Educação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006;2001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">210</t>
-  </si>
-  <si>
-    <t xml:space="preserve">submenu_perfis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perfis de Usuário</t>
-  </si>
-  <si>
-    <t xml:space="preserve">211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">submenu_contas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contas de Usuário</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2003;2001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/painel/funcionalidade/criar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">submenu_auditoria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auditoria do Sistema</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2004;2001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/admin/funcionalidades/criar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cadastrar Funcionalidades</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cadastrar funcionalidades</t>
+    <t xml:space="preserve">302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acao_config_sistema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configurar Sistema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011;2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/admin/configuracoes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acao_cad_perfil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cadastrar Perfil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007;2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/seguranca/perfis/criar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acao_list_perfil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Listar Perfis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008;2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/seguranca/perfis/listar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acao_assoc_perfil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associar Perfil a Funcionalidades</t>
   </si>
   <si>
     <t xml:space="preserve">11</t>
   </si>
   <si>
-    <t xml:space="preserve">300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">acao_cad_func</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cadastrar Funcionalidade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">acao_list_func</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Listar Funcionalidades</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008;2001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/admin/funcionalidades/listar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">acao_config_sistema</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Configurar Sistema</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2011;2001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/admin/configuracoes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">310</t>
-  </si>
-  <si>
-    <t xml:space="preserve">acao_cad_perfil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cadastrar Perfil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007;2001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/seguranca/perfis/criar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">acao_list_perfil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Listar Perfis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/seguranca/perfis/listar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">acao_assoc_perfil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Associar Perfil a Funcionalidades</t>
-  </si>
-  <si>
     <t xml:space="preserve">/seguranca/perfis/associar</t>
   </si>
   <si>
@@ -499,6 +463,54 @@
     <t xml:space="preserve">/servicos/educacao/listar</t>
   </si>
   <si>
+    <t xml:space="preserve">1008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acao_editar_saude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editar Denúncia - Saúde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/servicos/saude/editar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acao_eliminar_saude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eliminar Denúncia - Saúde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/servicos/saude/excluir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acao_editar_educacao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editar Denúncia - Educação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/servicos/educacao/editar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acao_eliminar_educacao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eliminar Denúncia - Educação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/servicos/educacao/excluir</t>
+  </si>
+  <si>
     <t xml:space="preserve">2004</t>
   </si>
   <si>
@@ -550,90 +562,81 @@
     <t xml:space="preserve">/erro</t>
   </si>
   <si>
-    <t xml:space="preserve">2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">formulario_cadastro_contas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Formulario de Cadastro Contas</t>
+    <t xml:space="preserve">410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form_cad_func</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formulário: Cadastrar Funcionalidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form_list_func</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formulário: Listar Funcionalidades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form_config_sistema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formulário: Configurar Sistema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form_cad_perfil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formulário: Cadastrar Perfil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/painel/perfil/criar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form_list_perfil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formulário: Listar Perfis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/painel/perfil/listar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form_assoc_perfil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formulário: Associar Perfis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/painel/perfil/associar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form_cad_conta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formulário: Cadastrar Conta</t>
   </si>
   <si>
     <t xml:space="preserve">/painel/conta/criar</t>
   </si>
   <si>
-    <t xml:space="preserve">410</t>
-  </si>
-  <si>
-    <t xml:space="preserve">form_cad_func</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Formulário: Cadastrar Funcionalidade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">form_list_func</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Formulário: Listar Funcionalidades</t>
-  </si>
-  <si>
-    <t xml:space="preserve">412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">form_config_sistema</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Formulário: Configurar Sistema</t>
-  </si>
-  <si>
-    <t xml:space="preserve">413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">form_cad_perfil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Formulário: Cadastrar Perfil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/painel/perfil/criar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">form_list_perfil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Formulário: Listar Perfis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/painel/perfil/listar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">form_assoc_perfil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Formulário: Associar Perfis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/painel/perfil/associar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">form_cad_conta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Formulário: Cadastrar Conta</t>
-  </si>
-  <si>
     <t xml:space="preserve">417</t>
   </si>
   <si>
@@ -658,7 +661,355 @@
     <t xml:space="preserve">/painel/auditoria</t>
   </si>
   <si>
-    <t xml:space="preserve">2100</t>
+    <t xml:space="preserve">1014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form_cad_perfil_campo_designacao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campo: Designação do Perfil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form_cad_perfil_campo_estado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campo: Estado do Perfil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form_cad_perfil_campo_descricao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campo: Descrição do Perfil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form_cad_perfil_botao_salvar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botão: Salvar Perfil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form_cad_perfil_botao_limpar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botão: Limpar Campos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form_list_perfil_tabela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabela: Lista de Perfis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form_list_perfil_botao_editar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botão: Editar Perfil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form_list_perfil_botao_excluir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botão: Excluir Perfil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form_list_perfil_botao_historico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botão: Histórico do Perfil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form_list_perfil_botao_novo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botão: Novo Perfil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form_assoc_perfil_campo_funcionalidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campo: Funcionalidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form_assoc_perfil_campo_perfil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campo: Perfil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form_assoc_perfil_campo_detalhe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campo: Detalhe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form_assoc_perfil_botao_salvar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botão: Salvar Associação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form_assoc_perfil_botao_limpar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">secao_dados_pessoais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seção: Dados Pessoais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">campo_nome_completo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campo: Nome Completo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">campo_data_nascimento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campo: Data de Nascimento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">campo_genero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campo: Gênero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/api/seguranca/funcionalidade_importar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">campo_estado_civil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campo: Estado Civil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">campo_identificacao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campo: Bilhete de Identidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">campo_telefone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campo: Telefone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">secao_dados_conta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seção: Dados da Conta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">campo_email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campo: Email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">campo_senha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campo: Senha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">campo_tipo_conta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campo: Tipo de Conta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">campo_perfil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">campo_estado_conta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campo: Estado da Conta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">secao_endereco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seção: Endereço</t>
+  </si>
+  <si>
+    <t xml:space="preserve">campo_provincia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campo: Província</t>
+  </si>
+  <si>
+    <t xml:space="preserve">campo_municipio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campo: Município</t>
+  </si>
+  <si>
+    <t xml:space="preserve">campo_bairro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campo: Bairro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">campo_nome_rua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campo: Nome da Rua / Número</t>
+  </si>
+  <si>
+    <t xml:space="preserve">botao_salvar_conta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botão: Salvar Conta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">botao_limpar_conta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botão: Limpar Formulário</t>
+  </si>
+  <si>
+    <t xml:space="preserve">botao_cancelar_conta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botão: Cancelar Edição</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form_list_conta_tabela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabela: Lista de Contas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form_list_conta_botao_detalhes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botão: Ver Detalhes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form_list_conta_botao_editar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botão: Editar Conta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form_list_conta_botao_alternar_estado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botão: Alternar Estado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form_list_conta_botao_excluir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botão: Excluir Conta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form_list_conta_botao_novo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botão: Nova Conta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modal_detalhes_conta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modal: Detalhes da Conta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modal_campo_dados_pessoais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campo: Dados Pessoais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modal_campo_dados_conta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campo: Dados da Conta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modal_campo_endereco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campo: Endereço</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modal_botao_fechar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botão: Fechar Modal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modal_botao_editar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botão: Editar a partir do Modal</t>
   </si>
   <si>
     <t xml:space="preserve">input_text_local_ocorrencia</t>
@@ -667,586 +1018,529 @@
     <t xml:space="preserve">Caixa de entrada Local Específico da Ocorrência</t>
   </si>
   <si>
+    <t xml:space="preserve">form_cad_agua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formulário: Denúncia de Água</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form_list_agua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formulário: Listar Denúncias Água</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form_cad_saude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formulário: Denúncia de Saúde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form_list_saude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formulário: Listar Denúncias Saúde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form_cad_educacao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formulário: Denúncia de Educação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form_list_educacao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formulário: Listar Denúncias Educação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">botao_editar_saude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botão: Editar Denúncia - Saúde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">botao_eliminar_saude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botão: Eliminar Denúncia - Saúde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">botao_editar_educacao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botão: Editar Denúncia - Educação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">botao_eliminar_educacao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botão: Eliminar Denúncia - Educação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">input_text_contacto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caixa de entrada do Contacto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">secao_dados_agua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seção: Dados da Denúncia - Água</t>
+  </si>
+  <si>
+    <t xml:space="preserve">secao_dados_saude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seção: Dados da Denúncia - Saúde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">secao_dados_educacao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seção: Dados da Denúncia - Educação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">input_texto_nome_rua_saude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nome da Rua / Nº</t>
+  </si>
+  <si>
+    <t xml:space="preserve">campo_local_agua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Local da Ocorrência</t>
+  </si>
+  <si>
+    <t xml:space="preserve">campo_municipio_agua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Município</t>
+  </si>
+  <si>
+    <t xml:space="preserve">campo_bairro_agua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bairro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">campo_tipo_agua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo de Problema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">campo_data_agua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data da Ocorrência</t>
+  </si>
+  <si>
+    <t xml:space="preserve">campo_descricao_agua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descrição Detalhada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">campo_nome_agua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nome do Denunciante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">campo_contato_agua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contacto do Denunciante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">campo_anexo_agua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anexo (Opcional)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">campo_anonimo_agua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deseja permanecer anônimo?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">input_data_ocorrencia_escola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">campo_local_saude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Local da Ocorrência - Saúde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">campo_unidade_saude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unidade de Saúde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">campo_rua_saude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">campo_tipo_saude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo de Problema - Saúde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">campo_data_saude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data da Ocorrência - Saúde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">campo_descricao_saude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descrição Detalhada - Saúde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">campo_nome_saude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nome do Denunciante - Saúde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">campo_contato_saude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contacto - Saúde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">campo_anexo_saude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anexo (Opcional) - Saúde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">campo_anonimo_saude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deseja permanecer anônimo? - Saúde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">campo_local_educacao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Local da Ocorrência - Educação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">campo_escola_educacao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Escola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">campo_rua_educacao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">campo_data_educacao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data da Ocorrência - Educação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">campo_descricao_educacao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descrição Detalhada - Educação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">campo_nome_educacao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nome do Denunciante - Educação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">campo_contato_educacao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contacto - Educação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">campo_anexo_educacao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anexo (Opcional) - Educação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">campo_anonimo_educacao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deseja permanecer anônimo? - Educação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grupo_info_agua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grupo: Informações Básicas - Água</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grupo_contato_agua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grupo: Informações de Contato - Água</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grupo_info_saude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grupo: Informações Básicas - Saúde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grupo_contato_saude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grupo: Informações de Contato - Saúde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grupo_info_educacao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grupo: Informações Básicas - Educação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grupo_contato_educacao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grupo: Informações de Contato - Educação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">botao_salvar_agua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botão: Salvar Denúncia - Água</t>
+  </si>
+  <si>
+    <t xml:space="preserve">botao_cancelar_agua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botão: Cancelar - Água</t>
+  </si>
+  <si>
+    <t xml:space="preserve">botao_salvar_saude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botão: Salvar Denúncia - Saúde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">botao_cancelar_saude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botão: Cancelar - Saúde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">botao_salvar_educacao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botão: Salvar Denúncia - Educação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">botao_cancelar_educacao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botão: Cancelar - Educação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tabela_funcionalidades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabela: Lista de Funcionalidades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tabela_perfis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tabela_contas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tabela_denuncias_agua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabela: Denúncias de Água</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tabela_denuncias_saude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabela: Denúncias de Saúde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tabela_denuncias_educacao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabela: Denúncias de Educação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">botao_eliminar_agua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botão: Eliminar Denúncia - Água</t>
+  </si>
+  <si>
+    <t xml:space="preserve">card_resumo_saude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Card: Resumo Denúncias Saúde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">card_resumo_educacao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Card: Resumo Denúncias Educação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">card_status_sistema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Card: Status do Sistema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">botao_editar_agua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botão: Editar Denúncia - Água</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema PND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo Funcionalidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026-01-15-17-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pk_tipo_funcionalidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modulo_raiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modulo_administracao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modulo_servicos_publicos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modulo_relatorios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">menu_nivel_um</t>
+  </si>
+  <si>
+    <t xml:space="preserve">menu_nivel_dois</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">menu_nivel_tres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acao_formulario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acao_listagem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acao_associacao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">formulario_completo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">formulario_simples</t>
+  </si>
+  <si>
+    <t xml:space="preserve">campo_texto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">campo_selecao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">campo_data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">campo_arquivo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">campo_checkbox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">campo_textarea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">campo_contato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">campo_localizacao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grupo_campos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">secao_formulario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">botao_acao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">link_navegacao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tabela_listagem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">card_informacao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modal_dialogo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">painel_controle</t>
+  </si>
+  <si>
     <t xml:space="preserve">30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">420</t>
-  </si>
-  <si>
-    <t xml:space="preserve">form_cad_agua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Formulário: Denúncia de Água</t>
-  </si>
-  <si>
-    <t xml:space="preserve">421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">form_list_agua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Formulário: Listar Denúncias Água</t>
-  </si>
-  <si>
-    <t xml:space="preserve">422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">form_cad_saude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Formulário: Denúncia de Saúde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">form_list_saude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Formulário: Listar Denúncias Saúde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">form_cad_educacao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Formulário: Denúncia de Educação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">form_list_educacao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Formulário: Listar Denúncias Educação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">input_text_contacto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caixa de entrada do Contacto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">secao_dados_agua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seção: Dados da Denúncia - Água</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">secao_dados_saude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seção: Dados da Denúncia - Saúde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">secao_dados_educacao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seção: Dados da Denúncia - Educação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">input_texto_nome_rua_saude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nome da Rua / Nº</t>
-  </si>
-  <si>
-    <t xml:space="preserve">612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">campo_local_agua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Local da Ocorrência</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">campo_municipio_agua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Município</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">campo_bairro_agua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bairro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">campo_tipo_agua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tipo de Problema</t>
-  </si>
-  <si>
-    <t xml:space="preserve">604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">campo_data_agua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data da Ocorrência</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">campo_descricao_agua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Descrição Detalhada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">campo_nome_agua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nome do Denunciante</t>
-  </si>
-  <si>
-    <t xml:space="preserve">campo_contato_agua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contacto do Denunciante</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">campo_anexo_agua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anexo (Opcional)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">campo_anonimo_agua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deseja permanecer anônimo?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">input_data_ocorrencia_escola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/api/seguranca/funcionalidade_importar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">campo_local_saude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Local da Ocorrência - Saúde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">campo_unidade_saude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unidade de Saúde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">campo_rua_saude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">campo_tipo_saude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tipo de Problema - Saúde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">campo_data_saude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data da Ocorrência - Saúde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">campo_descricao_saude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Descrição Detalhada - Saúde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">campo_nome_saude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nome do Denunciante - Saúde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">campo_contato_saude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contacto - Saúde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">campo_anexo_saude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anexo (Opcional) - Saúde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">campo_anonimo_saude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deseja permanecer anônimo? - Saúde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">campo_local_educacao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Local da Ocorrência - Educação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">campo_escola_educacao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Escola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">campo_rua_educacao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">campo_data_educacao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data da Ocorrência - Educação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">campo_descricao_educacao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Descrição Detalhada - Educação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">campo_nome_educacao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nome do Denunciante - Educação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">campo_contato_educacao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contacto - Educação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">campo_anexo_educacao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anexo (Opcional) - Educação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">campo_anonimo_educacao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deseja permanecer anônimo? - Educação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grupo_info_agua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grupo: Informações Básicas - Água</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grupo_contato_agua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grupo: Informações de Contato - Água</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grupo_info_saude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grupo: Informações Básicas - Saúde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grupo_contato_saude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grupo: Informações de Contato - Saúde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grupo_info_educacao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grupo: Informações Básicas - Educação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grupo_contato_educacao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grupo: Informações de Contato - Educação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">botao_salvar_agua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Botão: Salvar Denúncia - Água</t>
-  </si>
-  <si>
-    <t xml:space="preserve">botao_cancelar_agua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Botão: Cancelar - Água</t>
-  </si>
-  <si>
-    <t xml:space="preserve">botao_salvar_saude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Botão: Salvar Denúncia - Saúde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">botao_cancelar_saude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Botão: Cancelar - Saúde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">botao_salvar_educacao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Botão: Salvar Denúncia - Educação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">botao_cancelar_educacao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Botão: Cancelar - Educação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tabela_funcionalidades</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tabela: Lista de Funcionalidades</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tabela_perfis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tabela: Lista de Perfis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tabela_contas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tabela: Lista de Contas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tabela_denuncias_agua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tabela: Denúncias de Água</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tabela_denuncias_saude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tabela: Denúncias de Saúde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tabela_denuncias_educacao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tabela: Denúncias de Educação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">card_resumo_agua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Card: Resumo Denúncias Água</t>
-  </si>
-  <si>
-    <t xml:space="preserve">card_resumo_saude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Card: Resumo Denúncias Saúde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">card_resumo_educacao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Card: Resumo Denúncias Educação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">card_status_sistema</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Card: Status do Sistema</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sistema PND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tipos de Componentes Hierárquicos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pk_tipo_funcionalidade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modulo_raiz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modulo_administracao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modulo_servicos_publicos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modulo_seguranca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modulo_relatorios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">menu_nivel_um</t>
-  </si>
-  <si>
-    <t xml:space="preserve">menu_nivel_dois</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">menu_nivel_tres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">acao_formulario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">acao_listagem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">acao_associacao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">formulario_completo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">formulario_simples</t>
-  </si>
-  <si>
-    <t xml:space="preserve">campo_texto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">campo_selecao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">campo_data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">campo_arquivo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">campo_checkbox</t>
-  </si>
-  <si>
-    <t xml:space="preserve">campo_textarea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">campo_contato</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">campo_localizacao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grupo_campos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">secao_formulario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">botao_acao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">link_navegacao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tabela_listagem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">card_informacao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modal_dialogo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">painel_controle</t>
   </si>
   <si>
     <t xml:space="preserve">indicador_status</t>
@@ -1431,7 +1725,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1476,16 +1770,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1607,17 +1905,18 @@
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="39.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="61.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="26.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="24.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="33.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="39.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="22.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="21.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="38.14"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="9" style="1" width="14.43"/>
@@ -1898,7 +2197,7 @@
         <v>16</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="8"/>
@@ -1910,11 +2209,11 @@
       <c r="B15" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="9" t="s">
         <v>53</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>16</v>
@@ -1927,38 +2226,38 @@
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="C16" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>57</v>
-      </c>
       <c r="D16" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G16" s="6"/>
-      <c r="H16" s="8"/>
+      <c r="H16" s="10"/>
     </row>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="C17" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>60</v>
-      </c>
       <c r="D17" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>16</v>
@@ -1966,23 +2265,21 @@
       <c r="F17" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="6" t="s">
-        <v>61</v>
-      </c>
+      <c r="G17" s="6"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>64</v>
-      </c>
       <c r="D18" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>16</v>
@@ -1990,47 +2287,43 @@
       <c r="F18" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G18" s="6" t="s">
-        <v>61</v>
-      </c>
+      <c r="G18" s="6"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>67</v>
-      </c>
       <c r="D19" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>68</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G19" s="6"/>
       <c r="H19" s="10"/>
     </row>
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>16</v>
@@ -2039,22 +2332,24 @@
         <v>41</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="H20" s="10"/>
+        <v>69</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="C21" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>74</v>
-      </c>
       <c r="D21" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>16</v>
@@ -2063,369 +2358,369 @@
         <v>41</v>
       </c>
       <c r="G21" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21" s="11" t="s">
         <v>75</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="C22" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="D22" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>54</v>
-      </c>
       <c r="E22" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>81</v>
+        <v>74</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>84</v>
-      </c>
       <c r="D23" s="6" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>51</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="C24" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>88</v>
-      </c>
       <c r="D24" s="6" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>81</v>
+        <v>88</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B25" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="B25" s="6" t="s">
         <v>91</v>
       </c>
+      <c r="C25" s="6" t="s">
+        <v>92</v>
+      </c>
       <c r="D25" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="H25" s="10" t="s">
         <v>94</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B26" s="7" t="s">
         <v>96</v>
       </c>
+      <c r="B26" s="6" t="s">
+        <v>97</v>
+      </c>
       <c r="C26" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C27" s="7" t="s">
         <v>102</v>
       </c>
+      <c r="C27" s="6" t="s">
+        <v>103</v>
+      </c>
       <c r="D27" s="6" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B28" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="B28" s="7" t="s">
         <v>107</v>
       </c>
+      <c r="C28" s="7" t="s">
+        <v>108</v>
+      </c>
       <c r="D28" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C29" s="6" t="s">
         <v>111</v>
       </c>
+      <c r="B29" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>113</v>
+      </c>
       <c r="D29" s="6" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>112</v>
+        <v>71</v>
+      </c>
+      <c r="G29" s="6"/>
+      <c r="H29" s="10" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>116</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H30" s="8" t="s">
         <v>117</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B31" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="B31" s="12" t="s">
         <v>120</v>
       </c>
+      <c r="C31" s="9" t="s">
+        <v>121</v>
+      </c>
       <c r="D31" s="6" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="H31" s="8" t="s">
         <v>122</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B32" s="7" t="s">
         <v>124</v>
       </c>
+      <c r="B32" s="12" t="s">
+        <v>125</v>
+      </c>
       <c r="C32" s="9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="G32" s="6"/>
+        <v>54</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>127</v>
+      </c>
       <c r="H32" s="10" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>130</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B34" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G34" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C34" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>134</v>
-      </c>
       <c r="H34" s="10" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B35" s="11" t="s">
         <v>137</v>
       </c>
+      <c r="B35" s="12" t="s">
+        <v>138</v>
+      </c>
       <c r="C35" s="9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H35" s="10" t="s">
         <v>140</v>
@@ -2435,75 +2730,75 @@
       <c r="A36" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="12" t="s">
         <v>142</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>143</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G36" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="H36" s="10" t="s">
         <v>144</v>
-      </c>
-      <c r="H36" s="10" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B37" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="C37" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C37" s="9" t="s">
-        <v>148</v>
-      </c>
       <c r="D37" s="6" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>62</v>
+        <v>134</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="12" t="s">
         <v>150</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>151</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>65</v>
+        <v>134</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="H38" s="10" t="s">
         <v>152</v>
@@ -2513,25 +2808,25 @@
       <c r="A39" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="12" t="s">
         <v>154</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>155</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>26</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="H39" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="H39" s="9" t="s">
         <v>156</v>
       </c>
     </row>
@@ -2539,25 +2834,25 @@
       <c r="A40" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="9" t="s">
         <v>158</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>159</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>89</v>
+        <v>141</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="H40" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="H40" s="9" t="s">
         <v>160</v>
       </c>
     </row>
@@ -2565,40 +2860,40 @@
       <c r="A41" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="9" t="s">
         <v>162</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>163</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>164</v>
+        <v>30</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="H41" s="10" t="s">
-        <v>165</v>
+        <v>132</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B42" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="C42" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="D42" s="6" t="s">
         <v>168</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>164</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>16</v>
@@ -2607,24 +2902,24 @@
         <v>13</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>17</v>
+        <v>169</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>16</v>
@@ -2633,137 +2928,137 @@
         <v>13</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B44" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="C44" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="D44" s="6" t="s">
         <v>176</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="H44" s="9" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="6" t="s">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="14" t="s">
         <v>179</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="D45" s="6" t="s">
-        <v>164</v>
+      <c r="D45" s="13" t="s">
+        <v>168</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F45" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>144</v>
+      <c r="F45" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>132</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="14" t="s">
         <v>182</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="D46" s="6" t="s">
-        <v>172</v>
+      <c r="D46" s="13" t="s">
+        <v>176</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F46" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>144</v>
+      <c r="F46" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>132</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="D47" s="6" t="s">
-        <v>164</v>
+      <c r="D47" s="13" t="s">
+        <v>168</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F47" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>144</v>
+      <c r="F47" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>132</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="14" t="s">
         <v>188</v>
       </c>
       <c r="C48" s="9" t="s">
         <v>189</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="H48" s="9" t="s">
         <v>190</v>
@@ -2773,23 +3068,23 @@
       <c r="A49" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="14" t="s">
         <v>193</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="H49" s="9" t="s">
         <v>194</v>
@@ -2799,23 +3094,23 @@
       <c r="A50" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="14" t="s">
         <v>197</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="H50" s="9" t="s">
         <v>198</v>
@@ -2825,98 +3120,98 @@
       <c r="A51" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C51" s="14" t="s">
         <v>201</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="B52" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="B52" s="14" t="s">
         <v>204</v>
       </c>
+      <c r="C52" s="14" t="s">
+        <v>205</v>
+      </c>
       <c r="D52" s="13" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="B53" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="B53" s="14" t="s">
         <v>208</v>
       </c>
+      <c r="C53" s="14" t="s">
+        <v>209</v>
+      </c>
       <c r="D53" s="13" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F53" s="13" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="B54" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="B54" s="14" t="s">
         <v>212</v>
       </c>
+      <c r="C54" s="14" t="s">
+        <v>213</v>
+      </c>
       <c r="D54" s="13" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
@@ -2925,284 +3220,284 @@
       <c r="A55" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="B55" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C55" s="14" t="s">
         <v>217</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>164</v>
+        <v>218</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F55" s="13" t="s">
-        <v>131</v>
+        <v>187</v>
       </c>
       <c r="G55" s="9"/>
       <c r="H55" s="9"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="B56" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="C56" s="12" t="s">
+      <c r="B56" s="14" t="s">
         <v>220</v>
       </c>
+      <c r="C56" s="14" t="s">
+        <v>221</v>
+      </c>
       <c r="D56" s="13" t="s">
-        <v>172</v>
+        <v>222</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F56" s="13" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="G56" s="9"/>
       <c r="H56" s="9"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="B57" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="C57" s="12" t="s">
         <v>223</v>
       </c>
+      <c r="B57" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>225</v>
+      </c>
       <c r="D57" s="13" t="s">
-        <v>164</v>
+        <v>226</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F57" s="13" t="s">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="G57" s="9"/>
       <c r="H57" s="9"/>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="B58" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="C58" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D58" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="D58" s="13" t="s">
-        <v>172</v>
-      </c>
       <c r="E58" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>146</v>
+        <v>187</v>
       </c>
       <c r="G58" s="9"/>
       <c r="H58" s="9"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="B59" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>229</v>
+        <v>230</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>232</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>164</v>
+        <v>233</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F59" s="13" t="s">
-        <v>149</v>
+        <v>191</v>
       </c>
       <c r="G59" s="9"/>
       <c r="H59" s="9"/>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="B60" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="C60" s="12" t="s">
-        <v>232</v>
+        <v>234</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>236</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>172</v>
+        <v>226</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F60" s="13" t="s">
-        <v>153</v>
+        <v>191</v>
       </c>
       <c r="G60" s="9"/>
       <c r="H60" s="9"/>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="B61" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>235</v>
+        <v>237</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>239</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F61" s="13" t="s">
-        <v>236</v>
+        <v>191</v>
       </c>
       <c r="G61" s="9"/>
       <c r="H61" s="9"/>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="B62" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>239</v>
+        <v>240</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>242</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F62" s="13" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="G62" s="9"/>
       <c r="H62" s="9"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="B63" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="C63" s="12" t="s">
         <v>243</v>
       </c>
+      <c r="B63" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>245</v>
+      </c>
       <c r="D63" s="13" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F63" s="13" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="G63" s="9"/>
       <c r="H63" s="9"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="B64" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="C64" s="12" t="s">
         <v>246</v>
       </c>
+      <c r="B64" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>248</v>
+      </c>
       <c r="D64" s="13" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F64" s="13" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="G64" s="9"/>
       <c r="H64" s="9"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="B65" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="C65" s="12" t="s">
         <v>249</v>
       </c>
+      <c r="B65" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>251</v>
+      </c>
       <c r="D65" s="13" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F65" s="13" t="s">
-        <v>250</v>
+        <v>195</v>
       </c>
       <c r="G65" s="9"/>
       <c r="H65" s="9"/>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="B66" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="C66" s="12" t="s">
         <v>252</v>
       </c>
+      <c r="B66" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>254</v>
+      </c>
       <c r="D66" s="13" t="s">
-        <v>253</v>
+        <v>222</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F66" s="13" t="s">
-        <v>237</v>
+        <v>195</v>
       </c>
       <c r="G66" s="9"/>
       <c r="H66" s="9"/>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="B67" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="C67" s="12" t="s">
+      <c r="B67" s="14" t="s">
         <v>256</v>
       </c>
+      <c r="C67" s="9" t="s">
+        <v>257</v>
+      </c>
       <c r="D67" s="13" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F67" s="13" t="s">
-        <v>237</v>
+        <v>195</v>
       </c>
       <c r="G67" s="9"/>
       <c r="H67" s="9"/>
@@ -3211,1009 +3506,1001 @@
       <c r="A68" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="B68" s="12" t="s">
+      <c r="B68" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="C68" s="9" t="s">
-        <v>260</v>
+      <c r="C68" s="14" t="s">
+        <v>229</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F68" s="13" t="s">
-        <v>237</v>
+        <v>195</v>
       </c>
       <c r="G68" s="9"/>
       <c r="H68" s="9"/>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="B69" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="B69" s="12" t="s">
+      <c r="C69" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="C69" s="9" t="s">
+      <c r="D69" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="D69" s="13" t="s">
-        <v>257</v>
-      </c>
       <c r="E69" s="6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F69" s="13" t="s">
-        <v>237</v>
+        <v>199</v>
       </c>
       <c r="G69" s="9"/>
       <c r="H69" s="9"/>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="13" t="s">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="n">
+        <v>1030</v>
+      </c>
+      <c r="B70" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="B70" s="12" t="s">
+      <c r="C70" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="D70" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="E70" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F70" s="15" t="n">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="n">
+        <v>1031</v>
+      </c>
+      <c r="B71" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="D70" s="13" t="s">
+      <c r="C71" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="E70" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F70" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="G70" s="9"/>
-      <c r="H70" s="9"/>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="13" t="s">
+      <c r="D71" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="E71" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F71" s="15" t="n">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="n">
+        <v>1032</v>
+      </c>
+      <c r="B72" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="B71" s="12" t="s">
+      <c r="C72" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="C71" s="9" t="s">
+      <c r="D72" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="E72" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F72" s="15" t="n">
+        <v>1029</v>
+      </c>
+      <c r="H72" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="D71" s="13" t="s">
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="n">
+        <v>1033</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="E71" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F71" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="G71" s="9"/>
-      <c r="H71" s="9"/>
-    </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="13" t="s">
+      <c r="C73" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B72" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="C72" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="D72" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F72" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="G72" s="9"/>
-      <c r="H72" s="9"/>
-    </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="B73" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="D73" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F73" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="G73" s="9"/>
-      <c r="H73" s="9"/>
+      <c r="D73" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="E73" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F73" s="1" t="n">
+        <v>1029</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="n">
-        <v>608</v>
-      </c>
-      <c r="B74" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="C74" s="12" t="s">
-        <v>279</v>
+        <v>1034</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>274</v>
       </c>
       <c r="D74" s="1" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E74" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F74" s="14" t="n">
-        <v>500</v>
+        <v>1</v>
+      </c>
+      <c r="F74" s="1" t="n">
+        <v>1029</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="n">
-        <v>609</v>
-      </c>
-      <c r="B75" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="C75" s="12" t="s">
-        <v>281</v>
+        <v>1035</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>276</v>
       </c>
       <c r="D75" s="1" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E75" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F75" s="14" t="n">
-        <v>500</v>
+        <v>1</v>
+      </c>
+      <c r="F75" s="1" t="n">
+        <v>1029</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="n">
-        <v>2307</v>
-      </c>
-      <c r="B76" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="C76" s="12" t="s">
-        <v>266</v>
+        <v>1036</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>278</v>
       </c>
       <c r="D76" s="1" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E76" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F76" s="14" t="n">
-        <v>623</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>283</v>
+        <v>1</v>
+      </c>
+      <c r="F76" s="1" t="n">
+        <v>416</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="n">
-        <v>610</v>
+        <v>1037</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D77" s="1" t="n">
         <v>14</v>
       </c>
       <c r="E77" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F77" s="1" t="n">
-        <v>501</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="n">
-        <v>611</v>
+        <v>1038</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D78" s="1" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E78" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F78" s="1" t="n">
-        <v>501</v>
+        <v>1036</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="n">
-        <v>612</v>
+        <v>1039</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>249</v>
+        <v>284</v>
       </c>
       <c r="D79" s="1" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E79" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F79" s="1" t="n">
-        <v>501</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="n">
-        <v>613</v>
+        <v>1040</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>290</v>
+        <v>251</v>
       </c>
       <c r="D80" s="1" t="n">
         <v>15</v>
       </c>
       <c r="E80" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F80" s="1" t="n">
-        <v>501</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="n">
-        <v>614</v>
+        <v>1041</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D81" s="1" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E81" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F81" s="1" t="n">
-        <v>501</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="n">
-        <v>615</v>
+        <v>1042</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D82" s="1" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E82" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F82" s="1" t="n">
-        <v>501</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>283</v>
+        <v>416</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="n">
-        <v>616</v>
+        <v>1043</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D83" s="1" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E83" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F83" s="1" t="n">
-        <v>501</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="n">
-        <v>617</v>
+        <v>1044</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D84" s="1" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E84" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F84" s="1" t="n">
-        <v>501</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="n">
-        <v>618</v>
+        <v>1045</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D85" s="1" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E85" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F85" s="1" t="n">
-        <v>501</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="n">
-        <v>619</v>
+        <v>1046</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D86" s="1" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E86" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F86" s="1" t="n">
-        <v>501</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="n">
-        <v>620</v>
+        <v>1047</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D87" s="1" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E87" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F87" s="1" t="n">
-        <v>502</v>
+        <v>416</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="n">
-        <v>621</v>
+        <v>1048</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D88" s="1" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E88" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F88" s="1" t="n">
-        <v>502</v>
+        <v>416</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="n">
-        <v>622</v>
+        <v>1049</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>249</v>
+        <v>303</v>
       </c>
       <c r="D89" s="1" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E89" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F89" s="1" t="n">
-        <v>502</v>
+        <v>416</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="n">
-        <v>623</v>
+        <v>1050</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D90" s="1" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E90" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F90" s="1" t="n">
-        <v>502</v>
+        <v>417</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="n">
-        <v>624</v>
+        <v>1051</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D91" s="1" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E91" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F91" s="1" t="n">
-        <v>502</v>
+        <v>417</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="n">
-        <v>625</v>
+        <v>1052</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D92" s="1" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E92" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F92" s="1" t="n">
-        <v>502</v>
+        <v>417</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="n">
-        <v>626</v>
+        <v>1053</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D93" s="1" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E93" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F93" s="1" t="n">
-        <v>502</v>
+        <v>417</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="n">
-        <v>627</v>
+        <v>1054</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D94" s="1" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E94" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F94" s="1" t="n">
-        <v>502</v>
+        <v>417</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="n">
-        <v>628</v>
+        <v>1055</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D95" s="1" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E95" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F95" s="1" t="n">
-        <v>502</v>
+        <v>417</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="n">
-        <v>700</v>
+        <v>1056</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D96" s="1" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E96" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F96" s="1" t="n">
-        <v>500</v>
+        <v>417</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="n">
-        <v>701</v>
+        <v>1057</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D97" s="1" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E97" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F97" s="1" t="n">
-        <v>500</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="n">
-        <v>702</v>
+        <v>1058</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D98" s="1" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E98" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F98" s="1" t="n">
-        <v>501</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="n">
-        <v>703</v>
+        <v>1059</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D99" s="1" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E99" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F99" s="1" t="n">
-        <v>501</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="n">
-        <v>704</v>
+        <v>1060</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D100" s="1" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E100" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F100" s="1" t="n">
-        <v>502</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="n">
-        <v>705</v>
+        <v>1061</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D101" s="1" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E101" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F101" s="1" t="n">
-        <v>502</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="n">
-        <v>800</v>
+        <v>2100</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D102" s="1" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E102" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F102" s="1" t="n">
-        <v>420</v>
+        <v>600</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="n">
-        <v>801</v>
+        <v>420</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D103" s="1" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E103" s="1" t="n">
         <v>2</v>
       </c>
       <c r="F103" s="1" t="n">
-        <v>420</v>
+        <v>320</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="n">
-        <v>802</v>
+        <v>421</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D104" s="1" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E104" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F104" s="1" t="n">
-        <v>422</v>
+        <v>321</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="n">
-        <v>803</v>
+        <v>422</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D105" s="1" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E105" s="1" t="n">
         <v>3</v>
       </c>
       <c r="F105" s="1" t="n">
-        <v>422</v>
+        <v>322</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="n">
-        <v>804</v>
+        <v>423</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D106" s="1" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E106" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F106" s="1" t="n">
-        <v>424</v>
+        <v>323</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="n">
-        <v>805</v>
+        <v>424</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D107" s="1" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E107" s="1" t="n">
         <v>4</v>
       </c>
       <c r="F107" s="1" t="n">
-        <v>424</v>
+        <v>324</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="n">
-        <v>900</v>
+        <v>425</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D108" s="1" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E108" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F108" s="1" t="n">
-        <v>411</v>
+        <v>325</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="n">
-        <v>901</v>
+        <v>1006</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D109" s="1" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E109" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F109" s="1" t="n">
-        <v>414</v>
+        <v>423</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="n">
-        <v>902</v>
+        <v>1007</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D110" s="1" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E110" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F110" s="1" t="n">
-        <v>417</v>
+        <v>423</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="n">
-        <v>903</v>
+        <v>1062</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D111" s="1" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E111" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F111" s="1" t="n">
-        <v>421</v>
+        <v>425</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="n">
-        <v>904</v>
+        <v>1011</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D112" s="1" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E112" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F112" s="1" t="n">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="n">
-        <v>905</v>
+        <v>2107</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D113" s="1" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E113" s="1" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F113" s="1" t="n">
-        <v>425</v>
+        <v>607</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D114" s="1" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E114" s="1" t="n">
         <v>2</v>
       </c>
       <c r="F114" s="1" t="n">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="n">
-        <v>1001</v>
+        <v>501</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D115" s="1" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E115" s="1" t="n">
         <v>3</v>
       </c>
       <c r="F115" s="1" t="n">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="n">
-        <v>1002</v>
+        <v>502</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D116" s="1" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E116" s="1" t="n">
         <v>4</v>
       </c>
       <c r="F116" s="1" t="n">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="n">
-        <v>1004</v>
+        <v>2203</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D117" s="1" t="n">
         <v>30</v>
@@ -4222,12 +4509,1082 @@
         <v>0</v>
       </c>
       <c r="F117" s="1" t="n">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="1" t="n">
+        <v>600</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D118" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="E118" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F118" s="1" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="1" t="n">
+        <v>601</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D119" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="E119" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F119" s="1" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="1" t="n">
+        <v>602</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D120" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="E120" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F120" s="1" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="1" t="n">
+        <v>603</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D121" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="E121" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F121" s="1" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="1" t="n">
+        <v>604</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D122" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="E122" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F122" s="1" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="1" t="n">
+        <v>605</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D123" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="E123" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F123" s="1" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="1" t="n">
+        <v>606</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D124" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="E124" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F124" s="1" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="1" t="n">
+        <v>607</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D125" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="E125" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F125" s="1" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="1" t="n">
+        <v>608</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D126" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="E126" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F126" s="1" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="1" t="n">
+        <v>609</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D127" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="E127" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F127" s="1" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="1" t="n">
+        <v>2307</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D128" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="E128" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F128" s="1" t="n">
+        <v>623</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="1" t="n">
+        <v>610</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D129" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="E129" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F129" s="1" t="n">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="1" t="n">
+        <v>611</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D130" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="E130" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F130" s="1" t="n">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="1" t="n">
+        <v>612</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D131" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="E131" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F131" s="1" t="n">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="1" t="n">
+        <v>613</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D132" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="E132" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F132" s="1" t="n">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="1" t="n">
+        <v>614</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D133" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="E133" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F133" s="1" t="n">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="1" t="n">
+        <v>615</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D134" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="E134" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F134" s="1" t="n">
+        <v>501</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="1" t="n">
+        <v>616</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D135" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="E135" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F135" s="1" t="n">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="1" t="n">
+        <v>617</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D136" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="E136" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F136" s="1" t="n">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="1" t="n">
+        <v>618</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="D137" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="E137" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F137" s="1" t="n">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="1" t="n">
+        <v>619</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D138" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="E138" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F138" s="1" t="n">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="1" t="n">
+        <v>620</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C139" s="1" t="s">
         <v>401</v>
       </c>
-    </row>
+      <c r="D139" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="E139" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F139" s="1" t="n">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="1" t="n">
+        <v>621</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D140" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="E140" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F140" s="1" t="n">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="1" t="n">
+        <v>622</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D141" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="E141" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F141" s="1" t="n">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="1" t="n">
+        <v>623</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D142" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="E142" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F142" s="1" t="n">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="1" t="n">
+        <v>624</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="D143" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="E143" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F143" s="1" t="n">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="1" t="n">
+        <v>625</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D144" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="E144" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F144" s="1" t="n">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="1" t="n">
+        <v>626</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="D145" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="E145" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F145" s="1" t="n">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="1" t="n">
+        <v>627</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="D146" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="E146" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F146" s="1" t="n">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="1" t="n">
+        <v>628</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D147" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="E147" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F147" s="1" t="n">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="1" t="n">
+        <v>700</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D148" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="E148" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F148" s="1" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="1" t="n">
+        <v>701</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="D149" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="E149" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F149" s="1" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="1" t="n">
+        <v>702</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D150" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="E150" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F150" s="1" t="n">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="1" t="n">
+        <v>703</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D151" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="E151" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F151" s="1" t="n">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="1" t="n">
+        <v>704</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D152" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="E152" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F152" s="1" t="n">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="1" t="n">
+        <v>705</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D153" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="E153" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F153" s="1" t="n">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="1" t="n">
+        <v>800</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D154" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="E154" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F154" s="1" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="1" t="n">
+        <v>801</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D155" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="E155" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F155" s="1" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="1" t="n">
+        <v>802</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D156" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="E156" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F156" s="1" t="n">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="1" t="n">
+        <v>803</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D157" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="E157" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F157" s="1" t="n">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="1" t="n">
+        <v>804</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D158" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="E158" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F158" s="1" t="n">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="1" t="n">
+        <v>805</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D159" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="E159" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F159" s="1" t="n">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="1" t="n">
+        <v>900</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D160" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="E160" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F160" s="1" t="n">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="1" t="n">
+        <v>901</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D161" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="E161" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F161" s="1" t="n">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="1" t="n">
+        <v>902</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D162" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="E162" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F162" s="1" t="n">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="1" t="n">
+        <v>903</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D163" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="E163" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F163" s="1" t="n">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="1" t="n">
+        <v>904</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D164" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="E164" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F164" s="1" t="n">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="1" t="n">
+        <v>905</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D165" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="E165" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F165" s="1" t="n">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="D166" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="E166" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F166" s="1" t="n">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="1" t="n">
+        <v>1001</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D167" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="E167" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F167" s="1" t="n">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="1" t="n">
+        <v>1002</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D168" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="E168" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F168" s="1" t="n">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="1" t="n">
+        <v>1004</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D169" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="E169" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F169" s="1" t="n">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="1" t="n">
+        <v>1005</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="D170" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="E170" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F170" s="1" t="n">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A4:H73"/>
+  <autoFilter ref="A4:H4"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -4246,7 +5603,7 @@
   </sheetPr>
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -4257,428 +5614,428 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>364</v>
+        <v>461</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>365</v>
+        <v>462</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" s="18" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="16" t="s">
-        <v>366</v>
-      </c>
-      <c r="B4" s="17" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="4" s="19" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="17" t="s">
+        <v>464</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="19" t="n">
+      <c r="A5" s="20" t="n">
         <v>1</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>367</v>
+        <v>465</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="21" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>368</v>
+        <v>466</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="21" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>369</v>
+        <v>467</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="21" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>370</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>371</v>
+        <v>468</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="21" t="s">
         <v>37</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>372</v>
+        <v>469</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="20" t="s">
-        <v>54</v>
+      <c r="A11" s="21" t="s">
+        <v>50</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>373</v>
+        <v>470</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="20" t="s">
-        <v>374</v>
+      <c r="A12" s="21" t="s">
+        <v>471</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>375</v>
+        <v>472</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="20" t="s">
-        <v>50</v>
+      <c r="A13" s="21" t="s">
+        <v>79</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>376</v>
+        <v>473</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="20" t="s">
-        <v>92</v>
+      <c r="A14" s="21" t="s">
+        <v>93</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>377</v>
+        <v>474</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="20" t="s">
-        <v>85</v>
+      <c r="A15" s="21" t="s">
+        <v>99</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>378</v>
+        <v>475</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>379</v>
+      <c r="A16" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="20" t="s">
-        <v>172</v>
+      <c r="A17" s="21" t="s">
+        <v>176</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>380</v>
+        <v>477</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="20" t="s">
-        <v>253</v>
+      <c r="A18" s="21" t="s">
+        <v>214</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>381</v>
+        <v>478</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="20" t="s">
-        <v>257</v>
+      <c r="A19" s="21" t="s">
+        <v>218</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>382</v>
+        <v>479</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="20" t="s">
-        <v>267</v>
+      <c r="A20" s="21" t="s">
+        <v>480</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>383</v>
+        <v>481</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="20" t="s">
-        <v>384</v>
+      <c r="A21" s="21" t="s">
+        <v>482</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>385</v>
+        <v>483</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="20" t="s">
-        <v>386</v>
+      <c r="A22" s="21" t="s">
+        <v>484</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>387</v>
+        <v>485</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="20" t="s">
-        <v>271</v>
+      <c r="A23" s="21" t="s">
+        <v>222</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>388</v>
+        <v>486</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="20" t="s">
-        <v>277</v>
+      <c r="A24" s="21" t="s">
+        <v>487</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>389</v>
+        <v>488</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="20" t="s">
-        <v>390</v>
+      <c r="A25" s="21" t="s">
+        <v>489</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>391</v>
+        <v>490</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="20" t="s">
-        <v>392</v>
+      <c r="A26" s="21" t="s">
+        <v>491</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>393</v>
+        <v>492</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="20" t="s">
-        <v>240</v>
+      <c r="A27" s="21" t="s">
+        <v>263</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>394</v>
+        <v>493</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="20" t="s">
-        <v>395</v>
+      <c r="A28" s="21" t="s">
+        <v>226</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>396</v>
+        <v>494</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="20" t="s">
-        <v>397</v>
+      <c r="A29" s="21" t="s">
+        <v>495</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>398</v>
+        <v>496</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="20" t="s">
-        <v>399</v>
+      <c r="A30" s="21" t="s">
+        <v>233</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>400</v>
+        <v>497</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="20" t="s">
-        <v>401</v>
+      <c r="A31" s="21" t="s">
+        <v>498</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>402</v>
+        <v>499</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="20" t="s">
-        <v>403</v>
+      <c r="A32" s="21" t="s">
+        <v>500</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>404</v>
+        <v>501</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="20" t="s">
-        <v>405</v>
+      <c r="A33" s="21" t="s">
+        <v>502</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>406</v>
+        <v>503</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="20" t="s">
-        <v>213</v>
+      <c r="A34" s="21" t="s">
+        <v>504</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>407</v>
+        <v>505</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="20" t="n">
+      <c r="A35" s="21" t="n">
         <f aca="false">A34+1</f>
         <v>31</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>408</v>
+        <v>506</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="20" t="n">
+      <c r="A36" s="21" t="n">
         <f aca="false">A35+1</f>
         <v>32</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>409</v>
+        <v>507</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="20" t="n">
+      <c r="A37" s="21" t="n">
         <f aca="false">A36+1</f>
         <v>33</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>410</v>
+        <v>508</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="20" t="n">
+      <c r="A38" s="21" t="n">
         <f aca="false">A37+1</f>
         <v>34</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>411</v>
+        <v>509</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="20" t="n">
+      <c r="A39" s="21" t="n">
         <f aca="false">A38+1</f>
         <v>35</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>412</v>
+        <v>510</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="20" t="n">
+      <c r="A40" s="21" t="n">
         <f aca="false">A39+1</f>
         <v>36</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>413</v>
+        <v>511</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="20" t="n">
+      <c r="A41" s="21" t="n">
         <f aca="false">A40+1</f>
         <v>37</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>414</v>
+        <v>512</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="20" t="n">
+      <c r="A42" s="21" t="n">
         <f aca="false">A41+1</f>
         <v>38</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>415</v>
+        <v>513</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="20" t="n">
+      <c r="A43" s="21" t="n">
         <f aca="false">A42+1</f>
         <v>39</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>416</v>
+        <v>514</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="20" t="n">
+      <c r="A44" s="21" t="n">
         <f aca="false">A43+1</f>
         <v>40</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>417</v>
+        <v>515</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="20" t="n">
+      <c r="A45" s="21" t="n">
         <f aca="false">A44+1</f>
         <v>41</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>418</v>
+        <v>516</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="20" t="n">
+      <c r="A46" s="21" t="n">
         <f aca="false">A45+1</f>
         <v>42</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>419</v>
+        <v>517</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="20" t="n">
+      <c r="A47" s="21" t="n">
         <f aca="false">A46+1</f>
         <v>43</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>420</v>
+        <v>518</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="20" t="n">
+      <c r="A48" s="21" t="n">
         <f aca="false">A47+1</f>
         <v>44</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>421</v>
+        <v>519</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="20" t="n">
+      <c r="A49" s="21" t="n">
         <f aca="false">A48+1</f>
         <v>45</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>422</v>
+        <v>520</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="20" t="n">
+      <c r="A50" s="21" t="n">
         <f aca="false">A49+1</f>
         <v>46</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>423</v>
+        <v>521</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="20" t="n">
+      <c r="A51" s="21" t="n">
         <f aca="false">A50+1</f>
         <v>47</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>424</v>
+        <v>522</v>
       </c>
     </row>
   </sheetData>
@@ -4713,28 +6070,28 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="22" t="s">
-        <v>425</v>
-      </c>
-      <c r="B1" s="22" t="s">
+      <c r="A1" s="23" t="s">
+        <v>523</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="22" t="n">
+      <c r="A2" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>426</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>427</v>
+      <c r="B2" s="23" t="s">
+        <v>524</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/Funcionalidade.xlsx
+++ b/Funcionalidade.xlsx
@@ -10,7 +10,6 @@
     <sheet name="funcionalidade" sheetId="1" r:id="rId1"/>
     <sheet name="tipo_funcionalidade" sheetId="2" r:id="rId2"/>
     <sheet name="aplicacao" sheetId="3" r:id="rId3"/>
-    <sheet name="Folha1" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">funcionalidade!$A$4:$H$131</definedName>
@@ -1560,14 +1559,14 @@
     <t>04-08-2025-12:00</t>
   </si>
   <si>
-    <t>2026-01-19-01-34</t>
+    <t>2026-01-27-01-19</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1624,19 +1623,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1658,7 +1644,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1731,8 +1717,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7481,26 +7465,4 @@
     <oddFooter>&amp;CffffffPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="30"/>
-    <col min="2" max="2" width="24.85546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="30"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Funcionalidade.xlsx
+++ b/Funcionalidade.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliseu.costa\Documents\UCAN\Cris\PF1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="funcionalidade" sheetId="1" r:id="rId1"/>
@@ -1559,14 +1564,14 @@
     <t>04-08-2025-12:00</t>
   </si>
   <si>
-    <t>2026-01-27-01-19</t>
+    <t>2026-02-28-12-41</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1579,21 +1584,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b/>
@@ -1618,9 +1608,16 @@
       <charset val="1"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1644,77 +1641,69 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1795,6 +1784,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1842,7 +1834,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1877,7 +1869,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2088,3891 +2080,3884 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H170"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView topLeftCell="A145" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="33.28515625" customWidth="1"/>
-    <col min="3" max="3" width="39.140625" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" style="28" customWidth="1"/>
-    <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" style="28" customWidth="1"/>
-    <col min="7" max="7" width="27" customWidth="1"/>
-    <col min="8" max="8" width="38.140625" customWidth="1"/>
+    <col min="1" max="1" width="19" style="15" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="39.140625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="8" style="15" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="27" style="15" customWidth="1"/>
+    <col min="8" max="8" width="38.140625" style="15" customWidth="1"/>
+    <col min="9" max="16384" width="14.42578125" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="C1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="C2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="12" t="s">
         <v>511</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="C3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="17" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="14">
         <v>0</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8" t="s">
+      <c r="G5" s="22"/>
+      <c r="H5" s="22" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="14">
         <v>1</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8" t="s">
+      <c r="G6" s="22"/>
+      <c r="H6" s="22" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="14">
         <v>1</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8" t="s">
+      <c r="G7" s="22"/>
+      <c r="H7" s="22" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="14">
         <v>1</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8" t="s">
+      <c r="G8" s="22"/>
+      <c r="H8" s="22" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="14">
         <v>1</v>
       </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8" t="s">
+      <c r="G9" s="22"/>
+      <c r="H9" s="22" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="14">
         <v>2</v>
       </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
     </row>
     <row r="11" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="14">
         <v>3</v>
       </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
     </row>
     <row r="12" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="8"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="22"/>
     </row>
     <row r="13" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="8"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="22"/>
     </row>
     <row r="14" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="8"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="22"/>
     </row>
     <row r="15" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="8"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="22"/>
     </row>
     <row r="16" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="10"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="24"/>
     </row>
     <row r="17" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="10"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="24"/>
     </row>
     <row r="18" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="10"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="24"/>
     </row>
     <row r="19" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="10"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="24"/>
     </row>
     <row r="20" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="H20" s="22" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="H21" s="11" t="s">
+      <c r="H21" s="25" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F22" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="H22" s="24" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="H23" s="22" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="F24" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="H24" s="8" t="s">
+      <c r="H24" s="22" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="20" t="s">
+      <c r="F25" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="H25" s="8" t="s">
+      <c r="H25" s="22" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="F26" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G26" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="H26" s="8" t="s">
+      <c r="H26" s="22" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F27" s="20" t="s">
+      <c r="F27" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="H27" s="8" t="s">
+      <c r="H27" s="22" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="D28" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="20" t="s">
+      <c r="F28" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G28" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="H28" s="8" t="s">
+      <c r="H28" s="22" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="D29" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="20" t="s">
+      <c r="F29" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G29" s="6"/>
-      <c r="H29" s="10" t="s">
+      <c r="G29" s="20"/>
+      <c r="H29" s="24" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="D30" s="20" t="s">
+      <c r="D30" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F30" s="20" t="s">
+      <c r="F30" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G30" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="H30" s="10" t="s">
+      <c r="H30" s="24" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="D31" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F31" s="20" t="s">
+      <c r="F31" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="G31" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="H31" s="10" t="s">
+      <c r="H31" s="24" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="D32" s="20" t="s">
+      <c r="D32" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F32" s="20" t="s">
+      <c r="F32" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="G32" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="H32" s="10" t="s">
+      <c r="H32" s="24" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="D33" s="20" t="s">
+      <c r="D33" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="20" t="s">
+      <c r="F33" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="G33" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="H33" s="10" t="s">
+      <c r="H33" s="24" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="D34" s="20" t="s">
+      <c r="D34" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F34" s="20" t="s">
+      <c r="F34" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="G34" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="H34" s="10" t="s">
+      <c r="H34" s="24" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="D35" s="20" t="s">
+      <c r="D35" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F35" s="20" t="s">
+      <c r="F35" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="G35" s="6" t="s">
+      <c r="G35" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="H35" s="10" t="s">
+      <c r="H35" s="24" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="D36" s="20" t="s">
+      <c r="D36" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F36" s="20" t="s">
+      <c r="F36" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="G36" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="H36" s="9" t="s">
+      <c r="H36" s="23" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="D37" s="20" t="s">
+      <c r="D37" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="20" t="s">
+      <c r="F37" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="G37" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="H37" s="9" t="s">
+      <c r="H37" s="23" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="D38" s="20" t="s">
+      <c r="D38" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F38" s="20" t="s">
+      <c r="F38" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G38" s="6" t="s">
+      <c r="G38" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="H38" s="9" t="s">
+      <c r="H38" s="23" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="D39" s="26" t="s">
+      <c r="D39" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F39" s="26" t="s">
+      <c r="F39" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="G39" s="9" t="s">
+      <c r="G39" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="H39" s="9" t="s">
+      <c r="H39" s="23" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="D40" s="26" t="s">
+      <c r="D40" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E40" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F40" s="26" t="s">
+      <c r="F40" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="G40" s="9" t="s">
+      <c r="G40" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="H40" s="9" t="s">
+      <c r="H40" s="23" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="D41" s="26" t="s">
+      <c r="D41" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E41" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F41" s="26" t="s">
+      <c r="F41" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="G41" s="9" t="s">
+      <c r="G41" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="H41" s="9" t="s">
+      <c r="H41" s="23" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="D42" s="26" t="s">
+      <c r="D42" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F42" s="26" t="s">
+      <c r="F42" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="G42" s="9" t="s">
+      <c r="G42" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="H42" s="9" t="s">
+      <c r="H42" s="23" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C43" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="D43" s="26" t="s">
+      <c r="D43" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E43" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F43" s="26" t="s">
+      <c r="F43" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="G43" s="9" t="s">
+      <c r="G43" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="H43" s="9" t="s">
+      <c r="H43" s="23" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C44" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="D44" s="26" t="s">
+      <c r="D44" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E44" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F44" s="26" t="s">
+      <c r="F44" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="G44" s="9" t="s">
+      <c r="G44" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="H44" s="9" t="s">
+      <c r="H44" s="23" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C45" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="D45" s="26" t="s">
+      <c r="D45" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="E45" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F45" s="26" t="s">
+      <c r="F45" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="G45" s="9" t="s">
+      <c r="G45" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="H45" s="9" t="s">
+      <c r="H45" s="23" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B46" s="23" t="s">
         <v>203</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C46" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="D46" s="26" t="s">
+      <c r="D46" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E46" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F46" s="26" t="s">
+      <c r="F46" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="G46" s="9" t="s">
+      <c r="G46" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="H46" s="9" t="s">
+      <c r="H46" s="23" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="13" t="s">
+      <c r="A47" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="C47" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="D47" s="26" t="s">
+      <c r="D47" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="E47" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F47" s="26" t="s">
+      <c r="F47" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="G47" s="9" t="s">
+      <c r="G47" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="H47" s="9" t="s">
+      <c r="H47" s="23" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
+      <c r="A48" s="12">
         <v>420</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="13" t="s">
         <v>329</v>
       </c>
-      <c r="D48" s="19">
+      <c r="D48" s="14">
         <v>12</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48" s="13">
         <v>2</v>
       </c>
-      <c r="F48" s="19">
+      <c r="F48" s="14">
         <v>320</v>
       </c>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
+      <c r="A49" s="12">
         <v>421</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="13" t="s">
         <v>331</v>
       </c>
-      <c r="D49" s="19">
+      <c r="D49" s="14">
         <v>13</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E49" s="13">
         <v>2</v>
       </c>
-      <c r="F49" s="19">
+      <c r="F49" s="14">
         <v>321</v>
       </c>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
+      <c r="A50" s="12">
         <v>422</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="13" t="s">
         <v>332</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="13" t="s">
         <v>333</v>
       </c>
-      <c r="D50" s="19">
+      <c r="D50" s="14">
         <v>12</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E50" s="13">
         <v>3</v>
       </c>
-      <c r="F50" s="19">
+      <c r="F50" s="14">
         <v>322</v>
       </c>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
+      <c r="A51" s="12">
         <v>423</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="13" t="s">
         <v>334</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="13" t="s">
         <v>335</v>
       </c>
-      <c r="D51" s="19">
+      <c r="D51" s="14">
         <v>13</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51" s="13">
         <v>3</v>
       </c>
-      <c r="F51" s="19">
+      <c r="F51" s="14">
         <v>323</v>
       </c>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
+      <c r="A52" s="12">
         <v>424</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="13" t="s">
         <v>336</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="D52" s="19">
+      <c r="D52" s="14">
         <v>12</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E52" s="13">
         <v>4</v>
       </c>
-      <c r="F52" s="19">
+      <c r="F52" s="14">
         <v>324</v>
       </c>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
+      <c r="A53" s="12">
         <v>425</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="13" t="s">
         <v>338</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="13" t="s">
         <v>339</v>
       </c>
-      <c r="D53" s="19">
+      <c r="D53" s="14">
         <v>13</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E53" s="13">
         <v>4</v>
       </c>
-      <c r="F53" s="19">
+      <c r="F53" s="14">
         <v>325</v>
       </c>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
+      <c r="A54" s="12">
         <v>500</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="13" t="s">
         <v>350</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="13" t="s">
         <v>351</v>
       </c>
-      <c r="D54" s="19">
+      <c r="D54" s="14">
         <v>23</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E54" s="13">
         <v>2</v>
       </c>
-      <c r="F54" s="19">
+      <c r="F54" s="14">
         <v>420</v>
       </c>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
+      <c r="A55" s="12">
         <v>501</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="13" t="s">
         <v>352</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="13" t="s">
         <v>353</v>
       </c>
-      <c r="D55" s="19">
+      <c r="D55" s="14">
         <v>23</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E55" s="13">
         <v>3</v>
       </c>
-      <c r="F55" s="19">
+      <c r="F55" s="14">
         <v>422</v>
       </c>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
+      <c r="A56" s="12">
         <v>502</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="13" t="s">
         <v>354</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="13" t="s">
         <v>355</v>
       </c>
-      <c r="D56" s="19">
+      <c r="D56" s="14">
         <v>23</v>
       </c>
-      <c r="E56" s="1">
+      <c r="E56" s="13">
         <v>4</v>
       </c>
-      <c r="F56" s="19">
+      <c r="F56" s="14">
         <v>424</v>
       </c>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
+      <c r="A57" s="12">
         <v>600</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="13" t="s">
         <v>358</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="13" t="s">
         <v>359</v>
       </c>
-      <c r="D57" s="19">
+      <c r="D57" s="14">
         <v>14</v>
       </c>
-      <c r="E57" s="1">
+      <c r="E57" s="13">
         <v>2</v>
       </c>
-      <c r="F57" s="19">
+      <c r="F57" s="14">
         <v>500</v>
       </c>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
+      <c r="A58" s="12">
         <v>601</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="13" t="s">
         <v>360</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="13" t="s">
         <v>361</v>
       </c>
-      <c r="D58" s="19">
+      <c r="D58" s="14">
         <v>15</v>
       </c>
-      <c r="E58" s="1">
+      <c r="E58" s="13">
         <v>2</v>
       </c>
-      <c r="F58" s="19">
+      <c r="F58" s="14">
         <v>500</v>
       </c>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
+      <c r="A59" s="12">
         <v>602</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="13" t="s">
         <v>362</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="13" t="s">
         <v>363</v>
       </c>
-      <c r="D59" s="19">
+      <c r="D59" s="14">
         <v>15</v>
       </c>
-      <c r="E59" s="1">
+      <c r="E59" s="13">
         <v>2</v>
       </c>
-      <c r="F59" s="19">
+      <c r="F59" s="14">
         <v>500</v>
       </c>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="3">
+      <c r="A60" s="12">
         <v>603</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="13" t="s">
         <v>364</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="13" t="s">
         <v>365</v>
       </c>
-      <c r="D60" s="19">
+      <c r="D60" s="14">
         <v>15</v>
       </c>
-      <c r="E60" s="1">
+      <c r="E60" s="13">
         <v>2</v>
       </c>
-      <c r="F60" s="19">
+      <c r="F60" s="14">
         <v>500</v>
       </c>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="3">
+      <c r="A61" s="12">
         <v>604</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="13" t="s">
         <v>366</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="13" t="s">
         <v>367</v>
       </c>
-      <c r="D61" s="19">
+      <c r="D61" s="14">
         <v>16</v>
       </c>
-      <c r="E61" s="1">
+      <c r="E61" s="13">
         <v>2</v>
       </c>
-      <c r="F61" s="19">
+      <c r="F61" s="14">
         <v>500</v>
       </c>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="3">
+      <c r="A62" s="12">
         <v>605</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="13" t="s">
         <v>368</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="13" t="s">
         <v>369</v>
       </c>
-      <c r="D62" s="19">
+      <c r="D62" s="14">
         <v>19</v>
       </c>
-      <c r="E62" s="1">
+      <c r="E62" s="13">
         <v>2</v>
       </c>
-      <c r="F62" s="19">
+      <c r="F62" s="14">
         <v>500</v>
       </c>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="3">
+      <c r="A63" s="12">
         <v>606</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="13" t="s">
         <v>370</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="13" t="s">
         <v>371</v>
       </c>
-      <c r="D63" s="19">
+      <c r="D63" s="14">
         <v>14</v>
       </c>
-      <c r="E63" s="1">
+      <c r="E63" s="13">
         <v>2</v>
       </c>
-      <c r="F63" s="19">
+      <c r="F63" s="14">
         <v>500</v>
       </c>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="3">
+      <c r="A64" s="12">
         <v>607</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="13" t="s">
         <v>372</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="13" t="s">
         <v>373</v>
       </c>
-      <c r="D64" s="19">
+      <c r="D64" s="14">
         <v>20</v>
       </c>
-      <c r="E64" s="1">
+      <c r="E64" s="13">
         <v>2</v>
       </c>
-      <c r="F64" s="19">
+      <c r="F64" s="14">
         <v>500</v>
       </c>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="13"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="3">
+      <c r="A65" s="12">
         <v>608</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="13" t="s">
         <v>374</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="13" t="s">
         <v>375</v>
       </c>
-      <c r="D65" s="19">
+      <c r="D65" s="14">
         <v>17</v>
       </c>
-      <c r="E65" s="1">
+      <c r="E65" s="13">
         <v>2</v>
       </c>
-      <c r="F65" s="19">
+      <c r="F65" s="14">
         <v>500</v>
       </c>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="13"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="3">
+      <c r="A66" s="12">
         <v>609</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="13" t="s">
         <v>376</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="13" t="s">
         <v>377</v>
       </c>
-      <c r="D66" s="19">
+      <c r="D66" s="14">
         <v>18</v>
       </c>
-      <c r="E66" s="1">
+      <c r="E66" s="13">
         <v>2</v>
       </c>
-      <c r="F66" s="19">
+      <c r="F66" s="14">
         <v>500</v>
       </c>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="3">
+      <c r="A67" s="12">
         <v>610</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="13" t="s">
         <v>379</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="13" t="s">
         <v>380</v>
       </c>
-      <c r="D67" s="19">
+      <c r="D67" s="14">
         <v>14</v>
       </c>
-      <c r="E67" s="1">
+      <c r="E67" s="13">
         <v>3</v>
       </c>
-      <c r="F67" s="19">
+      <c r="F67" s="14">
         <v>501</v>
       </c>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="13"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="3">
+      <c r="A68" s="12">
         <v>611</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="13" t="s">
         <v>381</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="13" t="s">
         <v>382</v>
       </c>
-      <c r="D68" s="19">
+      <c r="D68" s="14">
         <v>15</v>
       </c>
-      <c r="E68" s="1">
+      <c r="E68" s="13">
         <v>3</v>
       </c>
-      <c r="F68" s="19">
+      <c r="F68" s="14">
         <v>501</v>
       </c>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="13"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="3">
+      <c r="A69" s="12">
         <v>612</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="13" t="s">
         <v>383</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="13" t="s">
         <v>357</v>
       </c>
-      <c r="D69" s="19">
+      <c r="D69" s="14">
         <v>14</v>
       </c>
-      <c r="E69" s="1">
+      <c r="E69" s="13">
         <v>3</v>
       </c>
-      <c r="F69" s="19">
+      <c r="F69" s="14">
         <v>501</v>
       </c>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="13"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="3">
+      <c r="A70" s="12">
         <v>613</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="13" t="s">
         <v>384</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="13" t="s">
         <v>385</v>
       </c>
-      <c r="D70" s="19">
+      <c r="D70" s="14">
         <v>15</v>
       </c>
-      <c r="E70" s="1">
+      <c r="E70" s="13">
         <v>3</v>
       </c>
-      <c r="F70" s="19">
+      <c r="F70" s="14">
         <v>501</v>
       </c>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="13"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="3">
+      <c r="A71" s="12">
         <v>614</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="13" t="s">
         <v>386</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="13" t="s">
         <v>387</v>
       </c>
-      <c r="D71" s="19">
+      <c r="D71" s="14">
         <v>16</v>
       </c>
-      <c r="E71" s="1">
+      <c r="E71" s="13">
         <v>3</v>
       </c>
-      <c r="F71" s="19">
+      <c r="F71" s="14">
         <v>501</v>
       </c>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="13"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="3">
+      <c r="A72" s="12">
         <v>615</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="13" t="s">
         <v>388</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="D72" s="19">
+      <c r="D72" s="14">
         <v>19</v>
       </c>
-      <c r="E72" s="1">
+      <c r="E72" s="13">
         <v>3</v>
       </c>
-      <c r="F72" s="19">
+      <c r="F72" s="14">
         <v>501</v>
       </c>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1" t="s">
+      <c r="G72" s="13"/>
+      <c r="H72" s="13" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="3">
+      <c r="A73" s="12">
         <v>616</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="13" t="s">
         <v>390</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="13" t="s">
         <v>391</v>
       </c>
-      <c r="D73" s="19">
+      <c r="D73" s="14">
         <v>14</v>
       </c>
-      <c r="E73" s="1">
+      <c r="E73" s="13">
         <v>3</v>
       </c>
-      <c r="F73" s="19">
+      <c r="F73" s="14">
         <v>501</v>
       </c>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="13"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="3">
+      <c r="A74" s="12">
         <v>617</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="13" t="s">
         <v>392</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="13" t="s">
         <v>393</v>
       </c>
-      <c r="D74" s="19">
+      <c r="D74" s="14">
         <v>20</v>
       </c>
-      <c r="E74" s="1">
+      <c r="E74" s="13">
         <v>3</v>
       </c>
-      <c r="F74" s="19">
+      <c r="F74" s="14">
         <v>501</v>
       </c>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="13"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="3">
+      <c r="A75" s="12">
         <v>618</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="13" t="s">
         <v>394</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="13" t="s">
         <v>395</v>
       </c>
-      <c r="D75" s="19">
+      <c r="D75" s="14">
         <v>17</v>
       </c>
-      <c r="E75" s="1">
+      <c r="E75" s="13">
         <v>3</v>
       </c>
-      <c r="F75" s="19">
+      <c r="F75" s="14">
         <v>501</v>
       </c>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="13"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="3">
+      <c r="A76" s="12">
         <v>619</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="13" t="s">
         <v>396</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="13" t="s">
         <v>397</v>
       </c>
-      <c r="D76" s="19">
+      <c r="D76" s="14">
         <v>18</v>
       </c>
-      <c r="E76" s="1">
+      <c r="E76" s="13">
         <v>3</v>
       </c>
-      <c r="F76" s="19">
+      <c r="F76" s="14">
         <v>501</v>
       </c>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="13"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="3">
+      <c r="A77" s="12">
         <v>620</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="13" t="s">
         <v>398</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="13" t="s">
         <v>399</v>
       </c>
-      <c r="D77" s="19">
+      <c r="D77" s="14">
         <v>14</v>
       </c>
-      <c r="E77" s="1">
+      <c r="E77" s="13">
         <v>4</v>
       </c>
-      <c r="F77" s="19">
+      <c r="F77" s="14">
         <v>502</v>
       </c>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="13"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="3">
+      <c r="A78" s="12">
         <v>621</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="13" t="s">
         <v>400</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="13" t="s">
         <v>401</v>
       </c>
-      <c r="D78" s="19">
+      <c r="D78" s="14">
         <v>15</v>
       </c>
-      <c r="E78" s="1">
+      <c r="E78" s="13">
         <v>4</v>
       </c>
-      <c r="F78" s="19">
+      <c r="F78" s="14">
         <v>502</v>
       </c>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="13"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="3">
+      <c r="A79" s="12">
         <v>622</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="13" t="s">
         <v>402</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" s="13" t="s">
         <v>357</v>
       </c>
-      <c r="D79" s="19">
+      <c r="D79" s="14">
         <v>14</v>
       </c>
-      <c r="E79" s="1">
+      <c r="E79" s="13">
         <v>4</v>
       </c>
-      <c r="F79" s="19">
+      <c r="F79" s="14">
         <v>502</v>
       </c>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="13"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="3">
+      <c r="A80" s="12">
         <v>623</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="13" t="s">
         <v>403</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" s="13" t="s">
         <v>404</v>
       </c>
-      <c r="D80" s="19">
+      <c r="D80" s="14">
         <v>16</v>
       </c>
-      <c r="E80" s="1">
+      <c r="E80" s="13">
         <v>4</v>
       </c>
-      <c r="F80" s="19">
+      <c r="F80" s="14">
         <v>502</v>
       </c>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="13"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="3">
+      <c r="A81" s="12">
         <v>624</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="13" t="s">
         <v>405</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" s="13" t="s">
         <v>406</v>
       </c>
-      <c r="D81" s="19">
+      <c r="D81" s="14">
         <v>19</v>
       </c>
-      <c r="E81" s="1">
+      <c r="E81" s="13">
         <v>4</v>
       </c>
-      <c r="F81" s="19">
+      <c r="F81" s="14">
         <v>502</v>
       </c>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="13"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="3">
+      <c r="A82" s="12">
         <v>625</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="13" t="s">
         <v>407</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" s="13" t="s">
         <v>408</v>
       </c>
-      <c r="D82" s="19">
+      <c r="D82" s="14">
         <v>14</v>
       </c>
-      <c r="E82" s="1">
+      <c r="E82" s="13">
         <v>4</v>
       </c>
-      <c r="F82" s="19">
+      <c r="F82" s="14">
         <v>502</v>
       </c>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="13"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="3">
+      <c r="A83" s="12">
         <v>626</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="13" t="s">
         <v>409</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="13" t="s">
         <v>410</v>
       </c>
-      <c r="D83" s="19">
+      <c r="D83" s="14">
         <v>20</v>
       </c>
-      <c r="E83" s="1">
+      <c r="E83" s="13">
         <v>4</v>
       </c>
-      <c r="F83" s="19">
+      <c r="F83" s="14">
         <v>502</v>
       </c>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="13"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="3">
+      <c r="A84" s="12">
         <v>627</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="13" t="s">
         <v>411</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="13" t="s">
         <v>412</v>
       </c>
-      <c r="D84" s="19">
+      <c r="D84" s="14">
         <v>17</v>
       </c>
-      <c r="E84" s="1">
+      <c r="E84" s="13">
         <v>4</v>
       </c>
-      <c r="F84" s="19">
+      <c r="F84" s="14">
         <v>502</v>
       </c>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="13"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="3">
+      <c r="A85" s="12">
         <v>628</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="13" t="s">
         <v>413</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" s="13" t="s">
         <v>414</v>
       </c>
-      <c r="D85" s="19">
+      <c r="D85" s="14">
         <v>18</v>
       </c>
-      <c r="E85" s="1">
+      <c r="E85" s="13">
         <v>4</v>
       </c>
-      <c r="F85" s="19">
+      <c r="F85" s="14">
         <v>502</v>
       </c>
-      <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="13"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="3">
+      <c r="A86" s="12">
         <v>700</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" s="13" t="s">
         <v>415</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="13" t="s">
         <v>416</v>
       </c>
-      <c r="D86" s="19">
+      <c r="D86" s="14">
         <v>22</v>
       </c>
-      <c r="E86" s="1">
+      <c r="E86" s="13">
         <v>2</v>
       </c>
-      <c r="F86" s="19">
+      <c r="F86" s="14">
         <v>500</v>
       </c>
-      <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
+      <c r="G86" s="13"/>
+      <c r="H86" s="13"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="3">
+      <c r="A87" s="12">
         <v>701</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" s="13" t="s">
         <v>417</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" s="13" t="s">
         <v>418</v>
       </c>
-      <c r="D87" s="19">
+      <c r="D87" s="14">
         <v>22</v>
       </c>
-      <c r="E87" s="1">
+      <c r="E87" s="13">
         <v>2</v>
       </c>
-      <c r="F87" s="19">
+      <c r="F87" s="14">
         <v>500</v>
       </c>
-      <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
+      <c r="G87" s="13"/>
+      <c r="H87" s="13"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="3">
+      <c r="A88" s="12">
         <v>702</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" s="13" t="s">
         <v>419</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" s="13" t="s">
         <v>420</v>
       </c>
-      <c r="D88" s="19">
+      <c r="D88" s="14">
         <v>22</v>
       </c>
-      <c r="E88" s="1">
+      <c r="E88" s="13">
         <v>3</v>
       </c>
-      <c r="F88" s="19">
+      <c r="F88" s="14">
         <v>501</v>
       </c>
-      <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="13"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="3">
+      <c r="A89" s="12">
         <v>703</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" s="13" t="s">
         <v>421</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="D89" s="19">
+      <c r="D89" s="14">
         <v>22</v>
       </c>
-      <c r="E89" s="1">
+      <c r="E89" s="13">
         <v>3</v>
       </c>
-      <c r="F89" s="19">
+      <c r="F89" s="14">
         <v>501</v>
       </c>
-      <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
+      <c r="G89" s="13"/>
+      <c r="H89" s="13"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="3">
+      <c r="A90" s="12">
         <v>704</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" s="13" t="s">
         <v>423</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="D90" s="19">
+      <c r="D90" s="14">
         <v>22</v>
       </c>
-      <c r="E90" s="1">
+      <c r="E90" s="13">
         <v>4</v>
       </c>
-      <c r="F90" s="19">
+      <c r="F90" s="14">
         <v>502</v>
       </c>
-      <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
+      <c r="G90" s="13"/>
+      <c r="H90" s="13"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="3">
+      <c r="A91" s="12">
         <v>705</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" s="13" t="s">
         <v>425</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="D91" s="19">
+      <c r="D91" s="14">
         <v>22</v>
       </c>
-      <c r="E91" s="1">
+      <c r="E91" s="13">
         <v>4</v>
       </c>
-      <c r="F91" s="19">
+      <c r="F91" s="14">
         <v>502</v>
       </c>
-      <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
+      <c r="G91" s="13"/>
+      <c r="H91" s="13"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="3">
+      <c r="A92" s="12">
         <v>800</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" s="13" t="s">
         <v>427</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" s="13" t="s">
         <v>428</v>
       </c>
-      <c r="D92" s="19">
+      <c r="D92" s="14">
         <v>24</v>
       </c>
-      <c r="E92" s="1">
+      <c r="E92" s="13">
         <v>2</v>
       </c>
-      <c r="F92" s="19">
+      <c r="F92" s="14">
         <v>420</v>
       </c>
-      <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
+      <c r="G92" s="13"/>
+      <c r="H92" s="13"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="3">
+      <c r="A93" s="12">
         <v>801</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" s="13" t="s">
         <v>429</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" s="13" t="s">
         <v>430</v>
       </c>
-      <c r="D93" s="19">
+      <c r="D93" s="14">
         <v>24</v>
       </c>
-      <c r="E93" s="1">
+      <c r="E93" s="13">
         <v>2</v>
       </c>
-      <c r="F93" s="19">
+      <c r="F93" s="14">
         <v>420</v>
       </c>
-      <c r="G93" s="1"/>
-      <c r="H93" s="1"/>
+      <c r="G93" s="13"/>
+      <c r="H93" s="13"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="3">
+      <c r="A94" s="12">
         <v>802</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" s="13" t="s">
         <v>431</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" s="13" t="s">
         <v>432</v>
       </c>
-      <c r="D94" s="19">
+      <c r="D94" s="14">
         <v>24</v>
       </c>
-      <c r="E94" s="1">
+      <c r="E94" s="13">
         <v>3</v>
       </c>
-      <c r="F94" s="19">
+      <c r="F94" s="14">
         <v>422</v>
       </c>
-      <c r="G94" s="1"/>
-      <c r="H94" s="1"/>
+      <c r="G94" s="13"/>
+      <c r="H94" s="13"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="3">
+      <c r="A95" s="12">
         <v>803</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" s="13" t="s">
         <v>433</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" s="13" t="s">
         <v>434</v>
       </c>
-      <c r="D95" s="19">
+      <c r="D95" s="14">
         <v>24</v>
       </c>
-      <c r="E95" s="1">
+      <c r="E95" s="13">
         <v>3</v>
       </c>
-      <c r="F95" s="19">
+      <c r="F95" s="14">
         <v>422</v>
       </c>
-      <c r="G95" s="1"/>
-      <c r="H95" s="1"/>
+      <c r="G95" s="13"/>
+      <c r="H95" s="13"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="3">
+      <c r="A96" s="12">
         <v>804</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" s="13" t="s">
         <v>435</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C96" s="13" t="s">
         <v>436</v>
       </c>
-      <c r="D96" s="19">
+      <c r="D96" s="14">
         <v>24</v>
       </c>
-      <c r="E96" s="1">
+      <c r="E96" s="13">
         <v>4</v>
       </c>
-      <c r="F96" s="19">
+      <c r="F96" s="14">
         <v>424</v>
       </c>
-      <c r="G96" s="1"/>
-      <c r="H96" s="1"/>
+      <c r="G96" s="13"/>
+      <c r="H96" s="13"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="3">
+      <c r="A97" s="12">
         <v>805</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" s="13" t="s">
         <v>437</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" s="13" t="s">
         <v>438</v>
       </c>
-      <c r="D97" s="19">
+      <c r="D97" s="14">
         <v>24</v>
       </c>
-      <c r="E97" s="1">
+      <c r="E97" s="13">
         <v>4</v>
       </c>
-      <c r="F97" s="19">
+      <c r="F97" s="14">
         <v>424</v>
       </c>
-      <c r="G97" s="1"/>
-      <c r="H97" s="1"/>
+      <c r="G97" s="13"/>
+      <c r="H97" s="13"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="3">
+      <c r="A98" s="12">
         <v>900</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" s="13" t="s">
         <v>439</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" s="13" t="s">
         <v>440</v>
       </c>
-      <c r="D98" s="19">
+      <c r="D98" s="14">
         <v>26</v>
       </c>
-      <c r="E98" s="1">
+      <c r="E98" s="13">
         <v>1</v>
       </c>
-      <c r="F98" s="19">
+      <c r="F98" s="14">
         <v>411</v>
       </c>
-      <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
+      <c r="G98" s="13"/>
+      <c r="H98" s="13"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="3">
+      <c r="A99" s="12">
         <v>901</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" s="13" t="s">
         <v>441</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="D99" s="19">
+      <c r="D99" s="14">
         <v>26</v>
       </c>
-      <c r="E99" s="1">
+      <c r="E99" s="13">
         <v>1</v>
       </c>
-      <c r="F99" s="19">
+      <c r="F99" s="14">
         <v>414</v>
       </c>
-      <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
+      <c r="G99" s="13"/>
+      <c r="H99" s="13"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="3">
+      <c r="A100" s="12">
         <v>902</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B100" s="13" t="s">
         <v>442</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C100" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="D100" s="19">
+      <c r="D100" s="14">
         <v>26</v>
       </c>
-      <c r="E100" s="1">
+      <c r="E100" s="13">
         <v>1</v>
       </c>
-      <c r="F100" s="19">
+      <c r="F100" s="14">
         <v>417</v>
       </c>
-      <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
+      <c r="G100" s="13"/>
+      <c r="H100" s="13"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="3">
+      <c r="A101" s="12">
         <v>903</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" s="13" t="s">
         <v>443</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" s="13" t="s">
         <v>444</v>
       </c>
-      <c r="D101" s="19">
+      <c r="D101" s="14">
         <v>26</v>
       </c>
-      <c r="E101" s="1">
+      <c r="E101" s="13">
         <v>2</v>
       </c>
-      <c r="F101" s="19">
+      <c r="F101" s="14">
         <v>421</v>
       </c>
-      <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
+      <c r="G101" s="13"/>
+      <c r="H101" s="13"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="3">
+      <c r="A102" s="12">
         <v>904</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B102" s="13" t="s">
         <v>445</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C102" s="13" t="s">
         <v>446</v>
       </c>
-      <c r="D102" s="19">
+      <c r="D102" s="14">
         <v>26</v>
       </c>
-      <c r="E102" s="1">
+      <c r="E102" s="13">
         <v>3</v>
       </c>
-      <c r="F102" s="19">
+      <c r="F102" s="14">
         <v>423</v>
       </c>
-      <c r="G102" s="1"/>
-      <c r="H102" s="1"/>
+      <c r="G102" s="13"/>
+      <c r="H102" s="13"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="3">
+      <c r="A103" s="12">
         <v>905</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B103" s="13" t="s">
         <v>447</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C103" s="13" t="s">
         <v>448</v>
       </c>
-      <c r="D103" s="19">
+      <c r="D103" s="14">
         <v>26</v>
       </c>
-      <c r="E103" s="1">
+      <c r="E103" s="13">
         <v>4</v>
       </c>
-      <c r="F103" s="19">
+      <c r="F103" s="14">
         <v>425</v>
       </c>
-      <c r="G103" s="1"/>
-      <c r="H103" s="1"/>
+      <c r="G103" s="13"/>
+      <c r="H103" s="13"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="3">
+      <c r="A104" s="12">
         <v>1000</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B104" s="13" t="s">
         <v>449</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C104" s="13" t="s">
         <v>450</v>
       </c>
-      <c r="D104" s="19">
+      <c r="D104" s="14">
         <v>27</v>
       </c>
-      <c r="E104" s="1">
+      <c r="E104" s="13">
         <v>2</v>
       </c>
-      <c r="F104" s="19">
+      <c r="F104" s="14">
         <v>421</v>
       </c>
-      <c r="G104" s="1"/>
-      <c r="H104" s="1"/>
+      <c r="G104" s="13"/>
+      <c r="H104" s="13"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="3">
+      <c r="A105" s="12">
         <v>1001</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B105" s="13" t="s">
         <v>451</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C105" s="13" t="s">
         <v>452</v>
       </c>
-      <c r="D105" s="19">
+      <c r="D105" s="14">
         <v>27</v>
       </c>
-      <c r="E105" s="1">
+      <c r="E105" s="13">
         <v>3</v>
       </c>
-      <c r="F105" s="19">
+      <c r="F105" s="14">
         <v>423</v>
       </c>
-      <c r="G105" s="1"/>
-      <c r="H105" s="1"/>
+      <c r="G105" s="13"/>
+      <c r="H105" s="13"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="3">
+      <c r="A106" s="12">
         <v>1002</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B106" s="13" t="s">
         <v>453</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C106" s="13" t="s">
         <v>454</v>
       </c>
-      <c r="D106" s="19">
+      <c r="D106" s="14">
         <v>27</v>
       </c>
-      <c r="E106" s="1">
+      <c r="E106" s="13">
         <v>4</v>
       </c>
-      <c r="F106" s="19">
+      <c r="F106" s="14">
         <v>425</v>
       </c>
-      <c r="G106" s="1"/>
-      <c r="H106" s="1"/>
+      <c r="G106" s="13"/>
+      <c r="H106" s="13"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="3">
+      <c r="A107" s="12">
         <v>1004</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B107" s="13" t="s">
         <v>455</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C107" s="13" t="s">
         <v>456</v>
       </c>
-      <c r="D107" s="19">
+      <c r="D107" s="14">
         <v>30</v>
       </c>
-      <c r="E107" s="1">
+      <c r="E107" s="13">
         <v>0</v>
       </c>
-      <c r="F107" s="19">
+      <c r="F107" s="14">
         <v>401</v>
       </c>
-      <c r="G107" s="1"/>
-      <c r="H107" s="1"/>
+      <c r="G107" s="13"/>
+      <c r="H107" s="13"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="3">
+      <c r="A108" s="12">
         <v>1005</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B108" s="13" t="s">
         <v>457</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C108" s="13" t="s">
         <v>458</v>
       </c>
-      <c r="D108" s="19">
+      <c r="D108" s="14">
         <v>26</v>
       </c>
-      <c r="E108" s="1">
+      <c r="E108" s="13">
         <v>2</v>
       </c>
-      <c r="F108" s="19">
+      <c r="F108" s="14">
         <v>421</v>
       </c>
-      <c r="G108" s="1"/>
-      <c r="H108" s="1"/>
+      <c r="G108" s="13"/>
+      <c r="H108" s="13"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="3">
+      <c r="A109" s="12">
         <v>1006</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B109" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C109" s="13" t="s">
         <v>341</v>
       </c>
-      <c r="D109" s="19">
+      <c r="D109" s="14">
         <v>24</v>
       </c>
-      <c r="E109" s="1">
+      <c r="E109" s="13">
         <v>3</v>
       </c>
-      <c r="F109" s="19">
+      <c r="F109" s="14">
         <v>423</v>
       </c>
-      <c r="G109" s="1"/>
-      <c r="H109" s="1"/>
+      <c r="G109" s="13"/>
+      <c r="H109" s="13"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="3">
+      <c r="A110" s="12">
         <v>1007</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B110" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C110" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="D110" s="19">
+      <c r="D110" s="14">
         <v>24</v>
       </c>
-      <c r="E110" s="1">
+      <c r="E110" s="13">
         <v>3</v>
       </c>
-      <c r="F110" s="19">
+      <c r="F110" s="14">
         <v>423</v>
       </c>
-      <c r="G110" s="1"/>
-      <c r="H110" s="1"/>
+      <c r="G110" s="13"/>
+      <c r="H110" s="13"/>
     </row>
     <row r="111" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="6" t="s">
+      <c r="A111" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="B111" s="12" t="s">
+      <c r="B111" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="C111" s="9" t="s">
+      <c r="C111" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="D111" s="20" t="s">
+      <c r="D111" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="E111" s="6" t="s">
+      <c r="E111" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F111" s="20" t="s">
+      <c r="F111" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="G111" s="6" t="s">
+      <c r="G111" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="H111" s="10" t="s">
+      <c r="H111" s="24" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="6" t="s">
+      <c r="A112" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="B112" s="12" t="s">
+      <c r="B112" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="C112" s="9" t="s">
+      <c r="C112" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="D112" s="20" t="s">
+      <c r="D112" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="E112" s="6" t="s">
+      <c r="E112" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F112" s="20" t="s">
+      <c r="F112" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="G112" s="6" t="s">
+      <c r="G112" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="H112" s="10" t="s">
+      <c r="H112" s="24" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="3">
+      <c r="A113" s="12">
         <v>1011</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B113" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C113" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="D113" s="19">
+      <c r="D113" s="14">
         <v>24</v>
       </c>
-      <c r="E113" s="1">
+      <c r="E113" s="13">
         <v>4</v>
       </c>
-      <c r="F113" s="19">
+      <c r="F113" s="14">
         <v>425</v>
       </c>
-      <c r="G113" s="1"/>
-      <c r="H113" s="1"/>
+      <c r="G113" s="13"/>
+      <c r="H113" s="13"/>
     </row>
     <row r="114" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="6" t="s">
+      <c r="A114" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="B114" s="12" t="s">
+      <c r="B114" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="C114" s="9" t="s">
+      <c r="C114" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="D114" s="20" t="s">
+      <c r="D114" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="E114" s="6" t="s">
+      <c r="E114" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F114" s="20" t="s">
+      <c r="F114" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="G114" s="6" t="s">
+      <c r="G114" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="H114" s="9" t="s">
+      <c r="H114" s="23" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="6" t="s">
+      <c r="A115" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="B115" s="9" t="s">
+      <c r="B115" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="C115" s="9" t="s">
+      <c r="C115" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="D115" s="20" t="s">
+      <c r="D115" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="E115" s="6" t="s">
+      <c r="E115" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F115" s="20" t="s">
+      <c r="F115" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="G115" s="6" t="s">
+      <c r="G115" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="H115" s="9" t="s">
+      <c r="H115" s="23" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="13" t="s">
+      <c r="A116" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="B116" s="14" t="s">
+      <c r="B116" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="C116" s="14" t="s">
+      <c r="C116" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="D116" s="26" t="s">
+      <c r="D116" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="E116" s="6" t="s">
+      <c r="E116" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F116" s="26" t="s">
+      <c r="F116" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="G116" s="9"/>
-      <c r="H116" s="9"/>
+      <c r="G116" s="23"/>
+      <c r="H116" s="23"/>
     </row>
     <row r="117" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="13" t="s">
+      <c r="A117" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="B117" s="14" t="s">
+      <c r="B117" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="C117" s="14" t="s">
+      <c r="C117" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="D117" s="26" t="s">
+      <c r="D117" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="E117" s="6" t="s">
+      <c r="E117" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F117" s="26" t="s">
+      <c r="F117" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="G117" s="9"/>
-      <c r="H117" s="9"/>
+      <c r="G117" s="23"/>
+      <c r="H117" s="23"/>
     </row>
     <row r="118" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="13" t="s">
+      <c r="A118" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="B118" s="14" t="s">
+      <c r="B118" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="C118" s="14" t="s">
+      <c r="C118" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="D118" s="26" t="s">
+      <c r="D118" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="E118" s="6" t="s">
+      <c r="E118" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F118" s="26" t="s">
+      <c r="F118" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="G118" s="9"/>
-      <c r="H118" s="9"/>
+      <c r="G118" s="23"/>
+      <c r="H118" s="23"/>
     </row>
     <row r="119" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="13" t="s">
+      <c r="A119" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="B119" s="14" t="s">
+      <c r="B119" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="C119" s="14" t="s">
+      <c r="C119" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="D119" s="26" t="s">
+      <c r="D119" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="E119" s="6" t="s">
+      <c r="E119" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F119" s="26" t="s">
+      <c r="F119" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="G119" s="9"/>
-      <c r="H119" s="9"/>
+      <c r="G119" s="23"/>
+      <c r="H119" s="23"/>
     </row>
     <row r="120" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="13" t="s">
+      <c r="A120" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="B120" s="14" t="s">
+      <c r="B120" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="C120" s="14" t="s">
+      <c r="C120" s="23" t="s">
         <v>228</v>
       </c>
-      <c r="D120" s="26" t="s">
+      <c r="D120" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="E120" s="6" t="s">
+      <c r="E120" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F120" s="26" t="s">
+      <c r="F120" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="G120" s="9"/>
-      <c r="H120" s="9"/>
+      <c r="G120" s="23"/>
+      <c r="H120" s="23"/>
     </row>
     <row r="121" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="13" t="s">
+      <c r="A121" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="B121" s="14" t="s">
+      <c r="B121" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="C121" s="14" t="s">
+      <c r="C121" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="D121" s="26" t="s">
+      <c r="D121" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="E121" s="6" t="s">
+      <c r="E121" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F121" s="26" t="s">
+      <c r="F121" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="G121" s="9"/>
-      <c r="H121" s="9"/>
+      <c r="G121" s="23"/>
+      <c r="H121" s="23"/>
     </row>
     <row r="122" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="13" t="s">
+      <c r="A122" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="B122" s="14" t="s">
+      <c r="B122" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="C122" s="14" t="s">
+      <c r="C122" s="23" t="s">
         <v>235</v>
       </c>
-      <c r="D122" s="26" t="s">
+      <c r="D122" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="E122" s="6" t="s">
+      <c r="E122" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F122" s="26" t="s">
+      <c r="F122" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="G122" s="9"/>
-      <c r="H122" s="9"/>
+      <c r="G122" s="23"/>
+      <c r="H122" s="23"/>
     </row>
     <row r="123" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="13" t="s">
+      <c r="A123" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="B123" s="14" t="s">
+      <c r="B123" s="23" t="s">
         <v>237</v>
       </c>
-      <c r="C123" s="14" t="s">
+      <c r="C123" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="D123" s="26" t="s">
+      <c r="D123" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="E123" s="6" t="s">
+      <c r="E123" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F123" s="26" t="s">
+      <c r="F123" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="G123" s="9"/>
-      <c r="H123" s="9"/>
+      <c r="G123" s="23"/>
+      <c r="H123" s="23"/>
     </row>
     <row r="124" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="13" t="s">
+      <c r="A124" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="B124" s="14" t="s">
+      <c r="B124" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="C124" s="14" t="s">
+      <c r="C124" s="23" t="s">
         <v>241</v>
       </c>
-      <c r="D124" s="26" t="s">
+      <c r="D124" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="E124" s="6" t="s">
+      <c r="E124" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F124" s="26" t="s">
+      <c r="F124" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="G124" s="9"/>
-      <c r="H124" s="9"/>
+      <c r="G124" s="23"/>
+      <c r="H124" s="23"/>
     </row>
     <row r="125" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="13" t="s">
+      <c r="A125" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="B125" s="14" t="s">
+      <c r="B125" s="23" t="s">
         <v>243</v>
       </c>
-      <c r="C125" s="14" t="s">
+      <c r="C125" s="23" t="s">
         <v>244</v>
       </c>
-      <c r="D125" s="26" t="s">
+      <c r="D125" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="E125" s="6" t="s">
+      <c r="E125" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F125" s="26" t="s">
+      <c r="F125" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="G125" s="9"/>
-      <c r="H125" s="9"/>
+      <c r="G125" s="23"/>
+      <c r="H125" s="23"/>
     </row>
     <row r="126" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="13" t="s">
+      <c r="A126" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="B126" s="14" t="s">
+      <c r="B126" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="C126" s="9" t="s">
+      <c r="C126" s="23" t="s">
         <v>247</v>
       </c>
-      <c r="D126" s="26" t="s">
+      <c r="D126" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="E126" s="6" t="s">
+      <c r="E126" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F126" s="26" t="s">
+      <c r="F126" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="G126" s="9"/>
-      <c r="H126" s="9"/>
+      <c r="G126" s="23"/>
+      <c r="H126" s="23"/>
     </row>
     <row r="127" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="13" t="s">
+      <c r="A127" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="B127" s="14" t="s">
+      <c r="B127" s="23" t="s">
         <v>249</v>
       </c>
-      <c r="C127" s="9" t="s">
+      <c r="C127" s="23" t="s">
         <v>250</v>
       </c>
-      <c r="D127" s="26" t="s">
+      <c r="D127" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="E127" s="6" t="s">
+      <c r="E127" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F127" s="26" t="s">
+      <c r="F127" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="G127" s="9"/>
-      <c r="H127" s="9"/>
+      <c r="G127" s="23"/>
+      <c r="H127" s="23"/>
     </row>
     <row r="128" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="13" t="s">
+      <c r="A128" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="B128" s="14" t="s">
+      <c r="B128" s="23" t="s">
         <v>252</v>
       </c>
-      <c r="C128" s="9" t="s">
+      <c r="C128" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="D128" s="26" t="s">
+      <c r="D128" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="E128" s="6" t="s">
+      <c r="E128" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F128" s="26" t="s">
+      <c r="F128" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="G128" s="9"/>
-      <c r="H128" s="9"/>
+      <c r="G128" s="23"/>
+      <c r="H128" s="23"/>
     </row>
     <row r="129" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="13" t="s">
+      <c r="A129" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="B129" s="14" t="s">
+      <c r="B129" s="23" t="s">
         <v>255</v>
       </c>
-      <c r="C129" s="9" t="s">
+      <c r="C129" s="23" t="s">
         <v>256</v>
       </c>
-      <c r="D129" s="29">
+      <c r="D129" s="27">
         <v>24</v>
       </c>
-      <c r="E129" s="6" t="s">
+      <c r="E129" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F129" s="26" t="s">
+      <c r="F129" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="G129" s="9"/>
-      <c r="H129" s="9"/>
+      <c r="G129" s="23"/>
+      <c r="H129" s="23"/>
     </row>
     <row r="130" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="13" t="s">
+      <c r="A130" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="B130" s="14" t="s">
+      <c r="B130" s="23" t="s">
         <v>258</v>
       </c>
-      <c r="C130" s="14" t="s">
+      <c r="C130" s="23" t="s">
         <v>228</v>
       </c>
-      <c r="D130" s="29">
+      <c r="D130" s="27">
         <v>24</v>
       </c>
-      <c r="E130" s="6" t="s">
+      <c r="E130" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F130" s="26" t="s">
+      <c r="F130" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="G130" s="9"/>
-      <c r="H130" s="9"/>
+      <c r="G130" s="23"/>
+      <c r="H130" s="23"/>
     </row>
     <row r="131" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="13" t="s">
+      <c r="A131" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="B131" s="14" t="s">
+      <c r="B131" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="C131" s="9" t="s">
+      <c r="C131" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="D131" s="29">
+      <c r="D131" s="27">
         <v>23</v>
       </c>
-      <c r="E131" s="6" t="s">
+      <c r="E131" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F131" s="26" t="s">
+      <c r="F131" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="G131" s="9"/>
-      <c r="H131" s="9"/>
+      <c r="G131" s="23"/>
+      <c r="H131" s="23"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="3">
+      <c r="A132" s="12">
         <v>1030</v>
       </c>
-      <c r="B132" s="14" t="s">
+      <c r="B132" s="23" t="s">
         <v>262</v>
       </c>
-      <c r="C132" s="14" t="s">
+      <c r="C132" s="23" t="s">
         <v>263</v>
       </c>
-      <c r="D132" s="19">
+      <c r="D132" s="14">
         <v>14</v>
       </c>
-      <c r="E132" s="1">
+      <c r="E132" s="13">
         <v>1</v>
       </c>
-      <c r="F132" s="27">
+      <c r="F132" s="14">
         <v>1029</v>
       </c>
-      <c r="G132" s="1"/>
-      <c r="H132" s="1"/>
+      <c r="G132" s="13"/>
+      <c r="H132" s="13"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="3">
+      <c r="A133" s="12">
         <v>1031</v>
       </c>
-      <c r="B133" s="14" t="s">
+      <c r="B133" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="C133" s="14" t="s">
+      <c r="C133" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="D133" s="19">
+      <c r="D133" s="14">
         <v>16</v>
       </c>
-      <c r="E133" s="1">
+      <c r="E133" s="13">
         <v>1</v>
       </c>
-      <c r="F133" s="27">
+      <c r="F133" s="14">
         <v>1029</v>
       </c>
-      <c r="G133" s="1"/>
-      <c r="H133" s="1"/>
+      <c r="G133" s="13"/>
+      <c r="H133" s="13"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="3">
+      <c r="A134" s="12">
         <v>1032</v>
       </c>
-      <c r="B134" s="14" t="s">
+      <c r="B134" s="23" t="s">
         <v>266</v>
       </c>
-      <c r="C134" s="14" t="s">
+      <c r="C134" s="23" t="s">
         <v>267</v>
       </c>
-      <c r="D134" s="19">
+      <c r="D134" s="14">
         <v>15</v>
       </c>
-      <c r="E134" s="1">
+      <c r="E134" s="13">
         <v>1</v>
       </c>
-      <c r="F134" s="27">
+      <c r="F134" s="14">
         <v>1029</v>
       </c>
-      <c r="G134" s="1"/>
-      <c r="H134" s="1" t="s">
+      <c r="G134" s="13"/>
+      <c r="H134" s="13" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="3">
+      <c r="A135" s="12">
         <v>1033</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="B135" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="C135" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="D135" s="19">
+      <c r="D135" s="14">
         <v>15</v>
       </c>
-      <c r="E135" s="1">
+      <c r="E135" s="13">
         <v>1</v>
       </c>
-      <c r="F135" s="19">
+      <c r="F135" s="14">
         <v>1029</v>
       </c>
-      <c r="G135" s="1"/>
-      <c r="H135" s="1"/>
+      <c r="G135" s="13"/>
+      <c r="H135" s="13"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="3">
+      <c r="A136" s="12">
         <v>1034</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="B136" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="C136" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="D136" s="19">
+      <c r="D136" s="14">
         <v>14</v>
       </c>
-      <c r="E136" s="1">
+      <c r="E136" s="13">
         <v>1</v>
       </c>
-      <c r="F136" s="19">
+      <c r="F136" s="14">
         <v>1029</v>
       </c>
-      <c r="G136" s="1"/>
-      <c r="H136" s="1"/>
+      <c r="G136" s="13"/>
+      <c r="H136" s="13"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="3">
+      <c r="A137" s="12">
         <v>1035</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="B137" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="C137" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="D137" s="19">
+      <c r="D137" s="14">
         <v>20</v>
       </c>
-      <c r="E137" s="1">
+      <c r="E137" s="13">
         <v>1</v>
       </c>
-      <c r="F137" s="19">
+      <c r="F137" s="14">
         <v>1029</v>
       </c>
-      <c r="G137" s="1"/>
-      <c r="H137" s="1"/>
+      <c r="G137" s="13"/>
+      <c r="H137" s="13"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="3">
+      <c r="A138" s="12">
         <v>1036</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="B138" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="C138" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="D138" s="19">
+      <c r="D138" s="14">
         <v>23</v>
       </c>
-      <c r="E138" s="1">
+      <c r="E138" s="13">
         <v>1</v>
       </c>
-      <c r="F138" s="19">
+      <c r="F138" s="14">
         <v>416</v>
       </c>
-      <c r="G138" s="1"/>
-      <c r="H138" s="1"/>
+      <c r="G138" s="13"/>
+      <c r="H138" s="13"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="3">
+      <c r="A139" s="12">
         <v>1037</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="B139" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="C139" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="D139" s="19">
+      <c r="D139" s="14">
         <v>14</v>
       </c>
-      <c r="E139" s="1">
+      <c r="E139" s="13">
         <v>1</v>
       </c>
-      <c r="F139" s="19">
+      <c r="F139" s="14">
         <v>1036</v>
       </c>
-      <c r="G139" s="1"/>
-      <c r="H139" s="1"/>
+      <c r="G139" s="13"/>
+      <c r="H139" s="13"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="3">
+      <c r="A140" s="12">
         <v>1038</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="B140" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="C140" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="D140" s="19">
+      <c r="D140" s="14">
         <v>31</v>
       </c>
-      <c r="E140" s="1">
+      <c r="E140" s="13">
         <v>1</v>
       </c>
-      <c r="F140" s="19">
+      <c r="F140" s="14">
         <v>1036</v>
       </c>
-      <c r="G140" s="1"/>
-      <c r="H140" s="1" t="s">
+      <c r="G140" s="13"/>
+      <c r="H140" s="13" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="3">
+      <c r="A141" s="12">
         <v>1039</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="B141" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="C141" s="1" t="s">
+      <c r="C141" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="D141" s="19">
+      <c r="D141" s="14">
         <v>15</v>
       </c>
-      <c r="E141" s="1">
+      <c r="E141" s="13">
         <v>1</v>
       </c>
-      <c r="F141" s="19">
+      <c r="F141" s="14">
         <v>1036</v>
       </c>
-      <c r="G141" s="1"/>
-      <c r="H141" s="1"/>
+      <c r="G141" s="13"/>
+      <c r="H141" s="13"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="3">
+      <c r="A142" s="12">
         <v>1040</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="B142" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="C142" s="1" t="s">
+      <c r="C142" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="D142" s="19">
+      <c r="D142" s="14">
         <v>15</v>
       </c>
-      <c r="E142" s="1">
+      <c r="E142" s="13">
         <v>1</v>
       </c>
-      <c r="F142" s="19">
+      <c r="F142" s="14">
         <v>1036</v>
       </c>
-      <c r="G142" s="1"/>
-      <c r="H142" s="1"/>
+      <c r="G142" s="13"/>
+      <c r="H142" s="13"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="3">
+      <c r="A143" s="12">
         <v>1041</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="B143" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="C143" s="1" t="s">
+      <c r="C143" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="D143" s="19">
+      <c r="D143" s="14">
         <v>15</v>
       </c>
-      <c r="E143" s="1">
+      <c r="E143" s="13">
         <v>1</v>
       </c>
-      <c r="F143" s="19">
+      <c r="F143" s="14">
         <v>1036</v>
       </c>
-      <c r="G143" s="1"/>
-      <c r="H143" s="1"/>
+      <c r="G143" s="13"/>
+      <c r="H143" s="13"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" s="3">
+      <c r="A144" s="12">
         <v>1042</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="B144" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="C144" s="1" t="s">
+      <c r="C144" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="D144" s="19">
+      <c r="D144" s="14">
         <v>23</v>
       </c>
-      <c r="E144" s="1">
+      <c r="E144" s="13">
         <v>1</v>
       </c>
-      <c r="F144" s="19">
+      <c r="F144" s="14">
         <v>416</v>
       </c>
-      <c r="G144" s="1"/>
-      <c r="H144" s="1"/>
+      <c r="G144" s="13"/>
+      <c r="H144" s="13"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="3">
+      <c r="A145" s="12">
         <v>1043</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="B145" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="C145" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="D145" s="19">
+      <c r="D145" s="14">
         <v>15</v>
       </c>
-      <c r="E145" s="1">
+      <c r="E145" s="13">
         <v>1</v>
       </c>
-      <c r="F145" s="19">
+      <c r="F145" s="14">
         <v>1042</v>
       </c>
-      <c r="G145" s="1"/>
-      <c r="H145" s="1"/>
+      <c r="G145" s="13"/>
+      <c r="H145" s="13"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="3">
+      <c r="A146" s="12">
         <v>1044</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="B146" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="C146" s="1" t="s">
+      <c r="C146" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="D146" s="19">
+      <c r="D146" s="14">
         <v>15</v>
       </c>
-      <c r="E146" s="1">
+      <c r="E146" s="13">
         <v>1</v>
       </c>
-      <c r="F146" s="19">
+      <c r="F146" s="14">
         <v>1042</v>
       </c>
-      <c r="G146" s="1"/>
-      <c r="H146" s="1"/>
+      <c r="G146" s="13"/>
+      <c r="H146" s="13"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="3">
+      <c r="A147" s="12">
         <v>1045</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="B147" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="C147" s="1" t="s">
+      <c r="C147" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="D147" s="19">
+      <c r="D147" s="14">
         <v>15</v>
       </c>
-      <c r="E147" s="1">
+      <c r="E147" s="13">
         <v>1</v>
       </c>
-      <c r="F147" s="19">
+      <c r="F147" s="14">
         <v>1042</v>
       </c>
-      <c r="G147" s="1"/>
-      <c r="H147" s="1"/>
+      <c r="G147" s="13"/>
+      <c r="H147" s="13"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="3">
+      <c r="A148" s="12">
         <v>1046</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="B148" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="C148" s="1" t="s">
+      <c r="C148" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="D148" s="19">
+      <c r="D148" s="14">
         <v>14</v>
       </c>
-      <c r="E148" s="1">
+      <c r="E148" s="13">
         <v>1</v>
       </c>
-      <c r="F148" s="19">
+      <c r="F148" s="14">
         <v>1042</v>
       </c>
-      <c r="G148" s="1"/>
-      <c r="H148" s="1"/>
+      <c r="G148" s="13"/>
+      <c r="H148" s="13"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="3">
+      <c r="A149" s="12">
         <v>1047</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="B149" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="C149" s="1" t="s">
+      <c r="C149" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="D149" s="19">
+      <c r="D149" s="14">
         <v>24</v>
       </c>
-      <c r="E149" s="1">
+      <c r="E149" s="13">
         <v>1</v>
       </c>
-      <c r="F149" s="19">
+      <c r="F149" s="14">
         <v>416</v>
       </c>
-      <c r="G149" s="1"/>
-      <c r="H149" s="1"/>
+      <c r="G149" s="13"/>
+      <c r="H149" s="13"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="3">
+      <c r="A150" s="12">
         <v>1048</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="B150" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="C150" s="1" t="s">
+      <c r="C150" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="D150" s="19">
+      <c r="D150" s="14">
         <v>24</v>
       </c>
-      <c r="E150" s="1">
+      <c r="E150" s="13">
         <v>1</v>
       </c>
-      <c r="F150" s="19">
+      <c r="F150" s="14">
         <v>416</v>
       </c>
-      <c r="G150" s="1"/>
-      <c r="H150" s="1"/>
+      <c r="G150" s="13"/>
+      <c r="H150" s="13"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" s="3">
+      <c r="A151" s="12">
         <v>1049</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="B151" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="C151" s="1" t="s">
+      <c r="C151" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="D151" s="19">
+      <c r="D151" s="14">
         <v>24</v>
       </c>
-      <c r="E151" s="1">
+      <c r="E151" s="13">
         <v>1</v>
       </c>
-      <c r="F151" s="19">
+      <c r="F151" s="14">
         <v>416</v>
       </c>
-      <c r="G151" s="1"/>
-      <c r="H151" s="1"/>
+      <c r="G151" s="13"/>
+      <c r="H151" s="13"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" s="3">
+      <c r="A152" s="12">
         <v>1050</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="B152" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="C152" s="1" t="s">
+      <c r="C152" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="D152" s="19">
+      <c r="D152" s="14">
         <v>26</v>
       </c>
-      <c r="E152" s="1">
+      <c r="E152" s="13">
         <v>1</v>
       </c>
-      <c r="F152" s="19">
+      <c r="F152" s="14">
         <v>417</v>
       </c>
-      <c r="G152" s="1"/>
-      <c r="H152" s="1"/>
+      <c r="G152" s="13"/>
+      <c r="H152" s="13"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A153" s="3">
+      <c r="A153" s="12">
         <v>1051</v>
       </c>
-      <c r="B153" s="1" t="s">
+      <c r="B153" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="C153" s="1" t="s">
+      <c r="C153" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="D153" s="19">
+      <c r="D153" s="14">
         <v>24</v>
       </c>
-      <c r="E153" s="1">
+      <c r="E153" s="13">
         <v>1</v>
       </c>
-      <c r="F153" s="19">
+      <c r="F153" s="14">
         <v>417</v>
       </c>
-      <c r="G153" s="1"/>
-      <c r="H153" s="1"/>
+      <c r="G153" s="13"/>
+      <c r="H153" s="13"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" s="3">
+      <c r="A154" s="12">
         <v>1052</v>
       </c>
-      <c r="B154" s="1" t="s">
+      <c r="B154" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="C154" s="1" t="s">
+      <c r="C154" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="D154" s="19">
+      <c r="D154" s="14">
         <v>24</v>
       </c>
-      <c r="E154" s="1">
+      <c r="E154" s="13">
         <v>1</v>
       </c>
-      <c r="F154" s="19">
+      <c r="F154" s="14">
         <v>417</v>
       </c>
-      <c r="G154" s="1"/>
-      <c r="H154" s="1"/>
+      <c r="G154" s="13"/>
+      <c r="H154" s="13"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A155" s="3">
+      <c r="A155" s="12">
         <v>1053</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="B155" s="13" t="s">
         <v>308</v>
       </c>
-      <c r="C155" s="1" t="s">
+      <c r="C155" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="D155" s="19">
+      <c r="D155" s="14">
         <v>24</v>
       </c>
-      <c r="E155" s="1">
+      <c r="E155" s="13">
         <v>1</v>
       </c>
-      <c r="F155" s="19">
+      <c r="F155" s="14">
         <v>417</v>
       </c>
-      <c r="G155" s="1"/>
-      <c r="H155" s="1"/>
+      <c r="G155" s="13"/>
+      <c r="H155" s="13"/>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" s="3">
+      <c r="A156" s="12">
         <v>1054</v>
       </c>
-      <c r="B156" s="1" t="s">
+      <c r="B156" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="C156" s="1" t="s">
+      <c r="C156" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="D156" s="19">
+      <c r="D156" s="14">
         <v>24</v>
       </c>
-      <c r="E156" s="1">
+      <c r="E156" s="13">
         <v>1</v>
       </c>
-      <c r="F156" s="19">
+      <c r="F156" s="14">
         <v>417</v>
       </c>
-      <c r="G156" s="1"/>
-      <c r="H156" s="1"/>
+      <c r="G156" s="13"/>
+      <c r="H156" s="13"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" s="3">
+      <c r="A157" s="12">
         <v>1055</v>
       </c>
-      <c r="B157" s="1" t="s">
+      <c r="B157" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="C157" s="1" t="s">
+      <c r="C157" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="D157" s="19">
+      <c r="D157" s="14">
         <v>24</v>
       </c>
-      <c r="E157" s="1">
+      <c r="E157" s="13">
         <v>1</v>
       </c>
-      <c r="F157" s="19">
+      <c r="F157" s="14">
         <v>417</v>
       </c>
-      <c r="G157" s="1"/>
-      <c r="H157" s="1"/>
+      <c r="G157" s="13"/>
+      <c r="H157" s="13"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158" s="3">
+      <c r="A158" s="12">
         <v>1056</v>
       </c>
-      <c r="B158" s="1" t="s">
+      <c r="B158" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="C158" s="1" t="s">
+      <c r="C158" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="D158" s="19">
+      <c r="D158" s="14">
         <v>28</v>
       </c>
-      <c r="E158" s="1">
+      <c r="E158" s="13">
         <v>1</v>
       </c>
-      <c r="F158" s="19">
+      <c r="F158" s="14">
         <v>417</v>
       </c>
-      <c r="G158" s="1"/>
-      <c r="H158" s="1"/>
+      <c r="G158" s="13"/>
+      <c r="H158" s="13"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" s="3">
+      <c r="A159" s="12">
         <v>1057</v>
       </c>
-      <c r="B159" s="1" t="s">
+      <c r="B159" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="C159" s="1" t="s">
+      <c r="C159" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="D159" s="19">
+      <c r="D159" s="14">
         <v>14</v>
       </c>
-      <c r="E159" s="1">
+      <c r="E159" s="13">
         <v>1</v>
       </c>
-      <c r="F159" s="19">
+      <c r="F159" s="14">
         <v>1056</v>
       </c>
-      <c r="G159" s="1"/>
-      <c r="H159" s="1"/>
+      <c r="G159" s="13"/>
+      <c r="H159" s="13"/>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160" s="3">
+      <c r="A160" s="12">
         <v>1058</v>
       </c>
-      <c r="B160" s="1" t="s">
+      <c r="B160" s="13" t="s">
         <v>318</v>
       </c>
-      <c r="C160" s="1" t="s">
+      <c r="C160" s="13" t="s">
         <v>319</v>
       </c>
-      <c r="D160" s="19">
+      <c r="D160" s="14">
         <v>14</v>
       </c>
-      <c r="E160" s="1">
+      <c r="E160" s="13">
         <v>1</v>
       </c>
-      <c r="F160" s="19">
+      <c r="F160" s="14">
         <v>1056</v>
       </c>
-      <c r="G160" s="1"/>
-      <c r="H160" s="1"/>
+      <c r="G160" s="13"/>
+      <c r="H160" s="13"/>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161" s="3">
+      <c r="A161" s="12">
         <v>1059</v>
       </c>
-      <c r="B161" s="1" t="s">
+      <c r="B161" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="C161" s="1" t="s">
+      <c r="C161" s="13" t="s">
         <v>321</v>
       </c>
-      <c r="D161" s="19">
+      <c r="D161" s="14">
         <v>14</v>
       </c>
-      <c r="E161" s="1">
+      <c r="E161" s="13">
         <v>1</v>
       </c>
-      <c r="F161" s="19">
+      <c r="F161" s="14">
         <v>1056</v>
       </c>
-      <c r="G161" s="1"/>
-      <c r="H161" s="1"/>
+      <c r="G161" s="13"/>
+      <c r="H161" s="13"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A162" s="3">
+      <c r="A162" s="12">
         <v>1060</v>
       </c>
-      <c r="B162" s="1" t="s">
+      <c r="B162" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="C162" s="1" t="s">
+      <c r="C162" s="13" t="s">
         <v>323</v>
       </c>
-      <c r="D162" s="19">
+      <c r="D162" s="14">
         <v>24</v>
       </c>
-      <c r="E162" s="1">
+      <c r="E162" s="13">
         <v>1</v>
       </c>
-      <c r="F162" s="19">
+      <c r="F162" s="14">
         <v>1056</v>
       </c>
-      <c r="G162" s="1"/>
-      <c r="H162" s="1"/>
+      <c r="G162" s="13"/>
+      <c r="H162" s="13"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A163" s="3">
+      <c r="A163" s="12">
         <v>1061</v>
       </c>
-      <c r="B163" s="1" t="s">
+      <c r="B163" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="C163" s="1" t="s">
+      <c r="C163" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="D163" s="19">
+      <c r="D163" s="14">
         <v>24</v>
       </c>
-      <c r="E163" s="1">
+      <c r="E163" s="13">
         <v>1</v>
       </c>
-      <c r="F163" s="19">
+      <c r="F163" s="14">
         <v>1056</v>
       </c>
-      <c r="G163" s="1"/>
-      <c r="H163" s="1"/>
+      <c r="G163" s="13"/>
+      <c r="H163" s="13"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A164" s="3">
+      <c r="A164" s="12">
         <v>1062</v>
       </c>
-      <c r="B164" s="1" t="s">
+      <c r="B164" s="13" t="s">
         <v>344</v>
       </c>
-      <c r="C164" s="1" t="s">
+      <c r="C164" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="D164" s="19">
+      <c r="D164" s="14">
         <v>24</v>
       </c>
-      <c r="E164" s="1">
+      <c r="E164" s="13">
         <v>4</v>
       </c>
-      <c r="F164" s="19">
+      <c r="F164" s="14">
         <v>425</v>
       </c>
-      <c r="G164" s="1"/>
-      <c r="H164" s="1"/>
+      <c r="G164" s="13"/>
+      <c r="H164" s="13"/>
     </row>
     <row r="165" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="6" t="s">
+      <c r="A165" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="B165" s="7" t="s">
+      <c r="B165" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="C165" s="9" t="s">
+      <c r="C165" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="D165" s="20" t="s">
+      <c r="D165" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="E165" s="6" t="s">
+      <c r="E165" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F165" s="20" t="s">
+      <c r="F165" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="G165" s="6" t="s">
+      <c r="G165" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="H165" s="10" t="s">
+      <c r="H165" s="24" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="6" t="s">
+      <c r="A166" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="B166" s="9" t="s">
+      <c r="B166" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="C166" s="9" t="s">
+      <c r="C166" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="D166" s="20" t="s">
+      <c r="D166" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E166" s="6" t="s">
+      <c r="E166" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F166" s="20" t="s">
+      <c r="F166" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="G166" s="6" t="s">
+      <c r="G166" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="H166" s="9" t="s">
+      <c r="H166" s="23" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A167" s="3">
+      <c r="A167" s="12">
         <v>2107</v>
       </c>
-      <c r="B167" s="1" t="s">
+      <c r="B167" s="13" t="s">
         <v>348</v>
       </c>
-      <c r="C167" s="1" t="s">
+      <c r="C167" s="13" t="s">
         <v>349</v>
       </c>
-      <c r="D167" s="19">
+      <c r="D167" s="14">
         <v>30</v>
       </c>
-      <c r="E167" s="1">
+      <c r="E167" s="13">
         <v>0</v>
       </c>
-      <c r="F167" s="19">
+      <c r="F167" s="14">
         <v>607</v>
       </c>
-      <c r="G167" s="1"/>
-      <c r="H167" s="1"/>
+      <c r="G167" s="13"/>
+      <c r="H167" s="13"/>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A168" s="3">
+      <c r="A168" s="12">
         <v>2100</v>
       </c>
-      <c r="B168" s="1" t="s">
+      <c r="B168" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="C168" s="1" t="s">
+      <c r="C168" s="13" t="s">
         <v>327</v>
       </c>
-      <c r="D168" s="19">
+      <c r="D168" s="14">
         <v>30</v>
       </c>
-      <c r="E168" s="1">
+      <c r="E168" s="13">
         <v>0</v>
       </c>
-      <c r="F168" s="19">
+      <c r="F168" s="14">
         <v>600</v>
       </c>
-      <c r="G168" s="1"/>
-      <c r="H168" s="1"/>
+      <c r="G168" s="13"/>
+      <c r="H168" s="13"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A169" s="3">
+      <c r="A169" s="12">
         <v>2203</v>
       </c>
-      <c r="B169" s="1" t="s">
+      <c r="B169" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="C169" s="1" t="s">
+      <c r="C169" s="13" t="s">
         <v>357</v>
       </c>
-      <c r="D169" s="19">
+      <c r="D169" s="14">
         <v>30</v>
       </c>
-      <c r="E169" s="1">
+      <c r="E169" s="13">
         <v>0</v>
       </c>
-      <c r="F169" s="19">
+      <c r="F169" s="14">
         <v>612</v>
       </c>
-      <c r="G169" s="1"/>
-      <c r="H169" s="1"/>
+      <c r="G169" s="13"/>
+      <c r="H169" s="13"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A170" s="3">
+      <c r="A170" s="12">
         <v>2307</v>
       </c>
-      <c r="B170" s="1" t="s">
+      <c r="B170" s="13" t="s">
         <v>378</v>
       </c>
-      <c r="C170" s="1" t="s">
+      <c r="C170" s="13" t="s">
         <v>367</v>
       </c>
-      <c r="D170" s="19">
+      <c r="D170" s="14">
         <v>30</v>
       </c>
-      <c r="E170" s="1">
+      <c r="E170" s="13">
         <v>0</v>
       </c>
-      <c r="F170" s="19">
+      <c r="F170" s="14">
         <v>623</v>
       </c>
-      <c r="G170" s="1"/>
-      <c r="H170" s="1" t="s">
+      <c r="G170" s="13"/>
+      <c r="H170" s="13" t="s">
         <v>268</v>
       </c>
     </row>
@@ -5983,7 +5968,7 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5991,8 +5976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6002,410 +5987,410 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="2" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="18" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+    <row r="4" spans="1:2" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19">
+      <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="3" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19">
+      <c r="A6" s="8">
         <v>2</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="3" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19">
+      <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="3" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
+      <c r="A8" s="8">
         <v>4</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19">
+      <c r="A9" s="8">
         <v>5</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="3" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19">
+      <c r="A10" s="8">
         <v>6</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="3" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19">
+      <c r="A11" s="8">
         <v>7</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="3" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19">
+      <c r="A12" s="8">
         <v>8</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="3" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19">
+      <c r="A13" s="8">
         <v>9</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="3" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19">
+      <c r="A14" s="8">
         <v>10</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="3" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19">
+      <c r="A15" s="8">
         <v>11</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="3" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19">
+      <c r="A16" s="8">
         <v>12</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="9" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19">
+      <c r="A17" s="8">
         <v>13</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="3" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
+      <c r="A18" s="8">
         <v>14</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="3" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19">
+      <c r="A19" s="8">
         <v>15</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="3" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19">
+      <c r="A20" s="8">
         <v>16</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="3" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="19">
+      <c r="A21" s="8">
         <v>17</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="3" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="19">
+      <c r="A22" s="8">
         <v>18</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="3" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19">
+      <c r="A23" s="8">
         <v>19</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="3" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="19">
+      <c r="A24" s="8">
         <v>20</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="3" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="19">
+      <c r="A25" s="8">
         <v>21</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="3" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="19">
+      <c r="A26" s="8">
         <v>22</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="3" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="19">
+      <c r="A27" s="8">
         <v>23</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="3" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="19">
+      <c r="A28" s="8">
         <v>24</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="3" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="19">
+      <c r="A29" s="8">
         <v>25</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="3" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="19">
+      <c r="A30" s="8">
         <v>26</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="3" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="19">
+      <c r="A31" s="8">
         <v>27</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="3" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="19">
+      <c r="A32" s="8">
         <v>28</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="3" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="19">
+      <c r="A33" s="8">
         <v>29</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="3" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="19">
+      <c r="A34" s="8">
         <v>30</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="3" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="19">
+      <c r="A35" s="8">
         <v>31</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="3" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="19">
+      <c r="A36" s="8">
         <v>32</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="3" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="19">
+      <c r="A37" s="8">
         <v>33</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="3" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="19">
+      <c r="A38" s="8">
         <v>34</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="3" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="19">
+      <c r="A39" s="8">
         <v>35</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="3" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="19">
+      <c r="A40" s="8">
         <v>36</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="3" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="19">
+      <c r="A41" s="8">
         <v>37</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="3" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="19">
+      <c r="A42" s="8">
         <v>38</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="3" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="19">
+      <c r="A43" s="8">
         <v>39</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="3" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="19">
+      <c r="A44" s="8">
         <v>40</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="3" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="19">
+      <c r="A45" s="8">
         <v>41</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="3" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="19">
+      <c r="A46" s="8">
         <v>42</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="3" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="19">
+      <c r="A47" s="8">
         <v>43</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="3" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="19">
+      <c r="A48" s="8">
         <v>44</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="3" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="19">
+      <c r="A49" s="8">
         <v>45</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="3" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="19">
+      <c r="A50" s="8">
         <v>46</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="3" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="19">
+      <c r="A51" s="8">
         <v>47</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="3" t="s">
         <v>507</v>
       </c>
     </row>
@@ -6435,27 +6420,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="10" t="s">
         <v>508</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22">
+      <c r="A2" s="10">
         <v>0</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="10" t="s">
         <v>509</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="10" t="s">
         <v>510</v>
       </c>
     </row>
